--- a/MosquitoReview.xlsx
+++ b/MosquitoReview.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Yi-qi_Sep-2020\Articulos\Mosquitos\MosquitoReview\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828005A0-5952-45C6-8D97-15017AD78FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MosquitoReview" sheetId="1" r:id="rId4"/>
+    <sheet name="MosquitoReview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgPYec4xIDDDSu6WvyD4kCd2N2yFw=="/>
@@ -1740,39 +1749,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -1782,7 +1793,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1816,89 +1827,72 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2088,40 +2082,40 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="14.88"/>
-    <col customWidth="1" min="3" max="3" width="33.0"/>
-    <col customWidth="1" min="4" max="5" width="15.38"/>
-    <col customWidth="1" min="6" max="6" width="89.5"/>
-    <col customWidth="1" min="7" max="8" width="16.88"/>
-    <col customWidth="1" min="9" max="9" width="8.88"/>
-    <col customWidth="1" min="10" max="10" width="14.0"/>
-    <col customWidth="1" min="11" max="11" width="10.25"/>
-    <col customWidth="1" min="12" max="12" width="11.75"/>
-    <col customWidth="1" min="13" max="13" width="8.0"/>
-    <col customWidth="1" min="14" max="14" width="18.75"/>
-    <col customWidth="1" min="15" max="20" width="8.0"/>
-    <col customWidth="1" min="21" max="21" width="9.63"/>
-    <col customWidth="1" min="22" max="22" width="9.75"/>
-    <col customWidth="1" min="23" max="31" width="8.0"/>
+    <col min="1" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="89.5" customWidth="1"/>
+    <col min="7" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="8.875" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="18.75" customWidth="1"/>
+    <col min="15" max="20" width="8" customWidth="1"/>
+    <col min="21" max="21" width="9.625" customWidth="1"/>
+    <col min="22" max="22" width="9.75" customWidth="1"/>
+    <col min="23" max="31" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:31">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>25</v>
@@ -2222,10 +2216,10 @@
         <v>30</v>
       </c>
       <c r="I2" s="6">
-        <v>41.219269</v>
+        <v>41.219268999999997</v>
       </c>
       <c r="J2" s="7">
-        <v>-101.749519</v>
+        <v>-101.74951900000001</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>31</v>
@@ -2240,7 +2234,7 @@
         <v>34</v>
       </c>
       <c r="O2" s="5">
-        <v>2002.0</v>
+        <v>2002</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>35</v>
@@ -2273,7 +2267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:31">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>25</v>
@@ -2297,10 +2291,10 @@
         <v>30</v>
       </c>
       <c r="I3" s="6">
-        <v>41.219269</v>
+        <v>41.219268999999997</v>
       </c>
       <c r="J3" s="7">
-        <v>-101.749519</v>
+        <v>-101.74951900000001</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>31</v>
@@ -2315,7 +2309,7 @@
         <v>34</v>
       </c>
       <c r="O3" s="5">
-        <v>2002.0</v>
+        <v>2002</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>35</v>
@@ -2348,7 +2342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:31">
       <c r="A4" s="8" t="s">
         <v>41</v>
       </c>
@@ -2388,7 +2382,7 @@
         <v>50</v>
       </c>
       <c r="O4" s="8">
-        <v>1989.0</v>
+        <v>1989</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>51</v>
@@ -2423,7 +2417,7 @@
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:31">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>42</v>
@@ -2465,7 +2459,7 @@
         <v>50</v>
       </c>
       <c r="O5" s="4">
-        <v>1989.0</v>
+        <v>1989</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>51</v>
@@ -2498,7 +2492,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:31">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>42</v>
@@ -2540,7 +2534,7 @@
         <v>50</v>
       </c>
       <c r="O6" s="4">
-        <v>1989.0</v>
+        <v>1989</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>51</v>
@@ -2573,7 +2567,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:31">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>68</v>
@@ -2597,7 +2591,7 @@
         <v>74</v>
       </c>
       <c r="I7" s="5">
-        <v>19.514444</v>
+        <v>19.514444000000001</v>
       </c>
       <c r="J7" s="5">
         <v>-96.936667</v>
@@ -2615,7 +2609,7 @@
         <v>77</v>
       </c>
       <c r="O7" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>78</v>
@@ -2648,7 +2642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:31">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>83</v>
@@ -2672,7 +2666,7 @@
         <v>86</v>
       </c>
       <c r="I8" s="5">
-        <v>19.514444</v>
+        <v>19.514444000000001</v>
       </c>
       <c r="J8" s="5">
         <v>-96.936667</v>
@@ -2690,7 +2684,7 @@
         <v>77</v>
       </c>
       <c r="O8" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>78</v>
@@ -2723,7 +2717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:31">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>87</v>
@@ -2747,7 +2741,7 @@
         <v>91</v>
       </c>
       <c r="I9" s="5">
-        <v>19.514444</v>
+        <v>19.514444000000001</v>
       </c>
       <c r="J9" s="5">
         <v>-96.936667</v>
@@ -2765,7 +2759,7 @@
         <v>77</v>
       </c>
       <c r="O9" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>78</v>
@@ -2798,7 +2792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:31">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>92</v>
@@ -2816,7 +2810,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10">
-        <v>19.514444</v>
+        <v>19.514444000000001</v>
       </c>
       <c r="J10" s="10">
         <v>-96.936667</v>
@@ -2834,7 +2828,7 @@
         <v>77</v>
       </c>
       <c r="O10" s="10">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>78</v>
@@ -2867,7 +2861,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:31">
       <c r="A11" s="8" t="s">
         <v>94</v>
       </c>
@@ -2887,7 +2881,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10">
-        <v>19.514444</v>
+        <v>19.514444000000001</v>
       </c>
       <c r="J11" s="10">
         <v>-96.936667</v>
@@ -2905,7 +2899,7 @@
         <v>77</v>
       </c>
       <c r="O11" s="10">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P11" s="10" t="s">
         <v>78</v>
@@ -2944,7 +2938,7 @@
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:31">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>98</v>
@@ -2962,7 +2956,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10">
-        <v>19.514444</v>
+        <v>19.514444000000001</v>
       </c>
       <c r="J12" s="10">
         <v>-96.936667</v>
@@ -2980,7 +2974,7 @@
         <v>77</v>
       </c>
       <c r="O12" s="10">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>78</v>
@@ -3013,7 +3007,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:31">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>101</v>
@@ -3031,7 +3025,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10">
-        <v>19.514444</v>
+        <v>19.514444000000001</v>
       </c>
       <c r="J13" s="10">
         <v>-96.936667</v>
@@ -3049,7 +3043,7 @@
         <v>77</v>
       </c>
       <c r="O13" s="10">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>78</v>
@@ -3082,7 +3076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:31">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
         <v>103</v>
@@ -3100,7 +3094,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10">
-        <v>19.514444</v>
+        <v>19.514444000000001</v>
       </c>
       <c r="J14" s="10">
         <v>-96.936667</v>
@@ -3118,7 +3112,7 @@
         <v>77</v>
       </c>
       <c r="O14" s="10">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P14" s="10" t="s">
         <v>78</v>
@@ -3151,7 +3145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:31">
       <c r="A15" s="4" t="s">
         <v>105</v>
       </c>
@@ -3193,7 +3187,7 @@
         <v>114</v>
       </c>
       <c r="O15" s="4">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>115</v>
@@ -3228,7 +3222,7 @@
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:31" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>105</v>
       </c>
@@ -3254,10 +3248,10 @@
         <v>126</v>
       </c>
       <c r="I16" s="5">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="J16" s="4">
-        <v>-76.6</v>
+        <v>-76.599999999999994</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>113</v>
@@ -3272,7 +3266,7 @@
         <v>127</v>
       </c>
       <c r="O16" s="4">
-        <v>2006.0</v>
+        <v>2006</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>128</v>
@@ -3307,7 +3301,7 @@
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:27" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>135</v>
@@ -3334,7 +3328,7 @@
         <v>8.361167</v>
       </c>
       <c r="J17" s="16">
-        <v>-77.940667</v>
+        <v>-77.940667000000005</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>141</v>
@@ -3349,7 +3343,7 @@
         <v>142</v>
       </c>
       <c r="O17" s="4">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>143</v>
@@ -3384,7 +3378,7 @@
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>135</v>
@@ -3411,7 +3405,7 @@
         <v>8.361167</v>
       </c>
       <c r="J18" s="16">
-        <v>-77.940667</v>
+        <v>-77.940667000000005</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>141</v>
@@ -3426,7 +3420,7 @@
         <v>142</v>
       </c>
       <c r="O18" s="4">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>143</v>
@@ -3461,7 +3455,7 @@
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:27" ht="15.75" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>135</v>
@@ -3488,7 +3482,7 @@
         <v>8.361167</v>
       </c>
       <c r="J19" s="16">
-        <v>-77.940667</v>
+        <v>-77.940667000000005</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>141</v>
@@ -3503,7 +3497,7 @@
         <v>142</v>
       </c>
       <c r="O19" s="4">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>143</v>
@@ -3538,7 +3532,7 @@
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>155</v>
@@ -3565,7 +3559,7 @@
         <v>8.361167</v>
       </c>
       <c r="J20" s="16">
-        <v>-77.940667</v>
+        <v>-77.940667000000005</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -3585,7 +3579,7 @@
       <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:27" ht="15.75" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>135</v>
@@ -3612,7 +3606,7 @@
         <v>8.361167</v>
       </c>
       <c r="J21" s="16">
-        <v>-77.940667</v>
+        <v>-77.940667000000005</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>141</v>
@@ -3627,7 +3621,7 @@
         <v>142</v>
       </c>
       <c r="O21" s="4">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>143</v>
@@ -3662,7 +3656,7 @@
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>135</v>
@@ -3689,7 +3683,7 @@
         <v>8.361167</v>
       </c>
       <c r="J22" s="16">
-        <v>-77.940667</v>
+        <v>-77.940667000000005</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>141</v>
@@ -3704,7 +3698,7 @@
         <v>142</v>
       </c>
       <c r="O22" s="4">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>143</v>
@@ -3739,7 +3733,7 @@
       <c r="Z22" s="14"/>
       <c r="AA22" s="14"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:27" ht="15.75" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>135</v>
@@ -3766,7 +3760,7 @@
         <v>8.361167</v>
       </c>
       <c r="J23" s="16">
-        <v>-77.940667</v>
+        <v>-77.940667000000005</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>141</v>
@@ -3781,7 +3775,7 @@
         <v>142</v>
       </c>
       <c r="O23" s="4">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>143</v>
@@ -3816,7 +3810,7 @@
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:27" ht="15.75" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>135</v>
@@ -3843,7 +3837,7 @@
         <v>8.361167</v>
       </c>
       <c r="J24" s="16">
-        <v>-77.940667</v>
+        <v>-77.940667000000005</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>141</v>
@@ -3858,7 +3852,7 @@
         <v>142</v>
       </c>
       <c r="O24" s="4">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>143</v>
@@ -3893,7 +3887,7 @@
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:27" ht="15.75" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>135</v>
@@ -3920,7 +3914,7 @@
         <v>8.361167</v>
       </c>
       <c r="J25" s="16">
-        <v>-77.940667</v>
+        <v>-77.940667000000005</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>141</v>
@@ -3935,7 +3929,7 @@
         <v>142</v>
       </c>
       <c r="O25" s="4">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>143</v>
@@ -3970,7 +3964,7 @@
       <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:27" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>135</v>
@@ -3997,7 +3991,7 @@
         <v>8.361167</v>
       </c>
       <c r="J26" s="16">
-        <v>-77.940667</v>
+        <v>-77.940667000000005</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>141</v>
@@ -4012,7 +4006,7 @@
         <v>142</v>
       </c>
       <c r="O26" s="4">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>143</v>
@@ -4047,7 +4041,7 @@
       <c r="Z26" s="14"/>
       <c r="AA26" s="14"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:27" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>177</v>
       </c>
@@ -4091,7 +4085,7 @@
         <v>182</v>
       </c>
       <c r="O27" s="4">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>183</v>
@@ -4126,7 +4120,7 @@
       <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:27" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>177</v>
       </c>
@@ -4170,7 +4164,7 @@
         <v>182</v>
       </c>
       <c r="O28" s="4">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>183</v>
@@ -4203,7 +4197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
         <v>194</v>
@@ -4227,10 +4221,10 @@
         <v>197</v>
       </c>
       <c r="I29" s="4">
-        <v>26.158934</v>
+        <v>26.158933999999999</v>
       </c>
       <c r="J29" s="12">
-        <v>-97.830089</v>
+        <v>-97.830089000000001</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>198</v>
@@ -4245,7 +4239,7 @@
         <v>199</v>
       </c>
       <c r="O29" s="4">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>200</v>
@@ -4278,7 +4272,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
         <v>194</v>
@@ -4302,10 +4296,10 @@
         <v>208</v>
       </c>
       <c r="I30" s="4">
-        <v>26.158934</v>
+        <v>26.158933999999999</v>
       </c>
       <c r="J30" s="12">
-        <v>-97.830089</v>
+        <v>-97.830089000000001</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>198</v>
@@ -4320,7 +4314,7 @@
         <v>199</v>
       </c>
       <c r="O30" s="4">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>200</v>
@@ -4353,7 +4347,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="4" t="s">
         <v>209</v>
@@ -4377,7 +4371,7 @@
         <v>212</v>
       </c>
       <c r="I31" s="4">
-        <v>31.774893</v>
+        <v>31.774892999999999</v>
       </c>
       <c r="J31" s="12">
         <v>-106.555924</v>
@@ -4395,7 +4389,7 @@
         <v>214</v>
       </c>
       <c r="O31" s="4">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P31" s="17" t="s">
         <v>215</v>
@@ -4428,7 +4422,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:27" ht="15.75" customHeight="1">
       <c r="A32" s="5"/>
       <c r="B32" s="4" t="s">
         <v>209</v>
@@ -4452,7 +4446,7 @@
         <v>221</v>
       </c>
       <c r="I32" s="4">
-        <v>31.774893</v>
+        <v>31.774892999999999</v>
       </c>
       <c r="J32" s="12">
         <v>-106.555924</v>
@@ -4470,7 +4464,7 @@
         <v>214</v>
       </c>
       <c r="O32" s="4">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P32" s="17" t="s">
         <v>215</v>
@@ -4503,7 +4497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="4" t="s">
         <v>222</v>
@@ -4527,10 +4521,10 @@
         <v>226</v>
       </c>
       <c r="I33" s="18">
-        <v>-3.743181</v>
+        <v>-3.7431809999999999</v>
       </c>
       <c r="J33" s="12">
-        <v>-73.326919</v>
+        <v>-73.326919000000004</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>227</v>
@@ -4545,7 +4539,7 @@
         <v>228</v>
       </c>
       <c r="O33" s="19">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="P33" s="17" t="s">
         <v>229</v>
@@ -4578,7 +4572,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="4" t="s">
         <v>222</v>
@@ -4602,10 +4596,10 @@
         <v>239</v>
       </c>
       <c r="I34" s="4">
-        <v>-4.23035</v>
+        <v>-4.2303499999999996</v>
       </c>
       <c r="J34" s="12">
-        <v>-73.487833</v>
+        <v>-73.487832999999995</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>227</v>
@@ -4620,7 +4614,7 @@
         <v>228</v>
       </c>
       <c r="O34" s="19">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="P34" s="17" t="s">
         <v>229</v>
@@ -4653,7 +4647,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="4" t="s">
         <v>222</v>
@@ -4677,10 +4671,10 @@
         <v>226</v>
       </c>
       <c r="I35" s="18">
-        <v>-4.198911</v>
+        <v>-4.1989109999999998</v>
       </c>
       <c r="J35" s="12">
-        <v>-74.215261</v>
+        <v>-74.215260999999998</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>227</v>
@@ -4695,7 +4689,7 @@
         <v>228</v>
       </c>
       <c r="O35" s="19">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="P35" s="17" t="s">
         <v>229</v>
@@ -4728,7 +4722,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>241</v>
@@ -4755,7 +4749,7 @@
         <v>-21.5212</v>
       </c>
       <c r="J36" s="4">
-        <v>-49.3683</v>
+        <v>-49.368299999999998</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>246</v>
@@ -4770,7 +4764,7 @@
         <v>247</v>
       </c>
       <c r="O36" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P36" s="17" t="s">
         <v>248</v>
@@ -4803,7 +4797,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>241</v>
@@ -4830,7 +4824,7 @@
         <v>-21.5212</v>
       </c>
       <c r="J37" s="4">
-        <v>-49.3683</v>
+        <v>-49.368299999999998</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>246</v>
@@ -4845,7 +4839,7 @@
         <v>247</v>
       </c>
       <c r="O37" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P37" s="17" t="s">
         <v>248</v>
@@ -4878,7 +4872,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>241</v>
@@ -4905,7 +4899,7 @@
         <v>-21.5212</v>
       </c>
       <c r="J38" s="4">
-        <v>-49.3683</v>
+        <v>-49.368299999999998</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>246</v>
@@ -4920,7 +4914,7 @@
         <v>247</v>
       </c>
       <c r="O38" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P38" s="17" t="s">
         <v>248</v>
@@ -4953,7 +4947,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="4" t="s">
         <v>241</v>
@@ -4977,10 +4971,10 @@
         <v>257</v>
       </c>
       <c r="I39" s="4">
-        <v>-21.4257</v>
+        <v>-21.425699999999999</v>
       </c>
       <c r="J39" s="4">
-        <v>-49.5004</v>
+        <v>-49.500399999999999</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>258</v>
@@ -4995,7 +4989,7 @@
         <v>247</v>
       </c>
       <c r="O39" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P39" s="17" t="s">
         <v>248</v>
@@ -5028,7 +5022,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="4" t="s">
         <v>241</v>
@@ -5070,7 +5064,7 @@
         <v>247</v>
       </c>
       <c r="O40" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P40" s="17" t="s">
         <v>248</v>
@@ -5103,7 +5097,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
         <v>241</v>
@@ -5145,7 +5139,7 @@
         <v>247</v>
       </c>
       <c r="O41" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P41" s="17" t="s">
         <v>248</v>
@@ -5178,7 +5172,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="5"/>
       <c r="B42" s="4" t="s">
         <v>241</v>
@@ -5220,7 +5214,7 @@
         <v>247</v>
       </c>
       <c r="O42" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P42" s="17" t="s">
         <v>248</v>
@@ -5253,7 +5247,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="5"/>
       <c r="B43" s="4" t="s">
         <v>241</v>
@@ -5295,7 +5289,7 @@
         <v>247</v>
       </c>
       <c r="O43" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P43" s="17" t="s">
         <v>248</v>
@@ -5328,7 +5322,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="5"/>
       <c r="B44" s="4" t="s">
         <v>241</v>
@@ -5352,10 +5346,10 @@
         <v>257</v>
       </c>
       <c r="I44" s="4">
-        <v>-21.1043</v>
+        <v>-21.104299999999999</v>
       </c>
       <c r="J44" s="4">
-        <v>-50.159</v>
+        <v>-50.158999999999999</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>265</v>
@@ -5370,7 +5364,7 @@
         <v>247</v>
       </c>
       <c r="O44" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P44" s="17" t="s">
         <v>248</v>
@@ -5403,7 +5397,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="5"/>
       <c r="B45" s="4" t="s">
         <v>241</v>
@@ -5427,10 +5421,10 @@
         <v>260</v>
       </c>
       <c r="I45" s="4">
-        <v>-20.8455</v>
+        <v>-20.845500000000001</v>
       </c>
       <c r="J45" s="4">
-        <v>-50.7823</v>
+        <v>-50.782299999999999</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>266</v>
@@ -5445,7 +5439,7 @@
         <v>247</v>
       </c>
       <c r="O45" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P45" s="17" t="s">
         <v>248</v>
@@ -5478,7 +5472,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="5"/>
       <c r="B46" s="4" t="s">
         <v>241</v>
@@ -5505,7 +5499,7 @@
         <v>-20.8644</v>
       </c>
       <c r="J46" s="4">
-        <v>-50.9528</v>
+        <v>-50.952800000000003</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>269</v>
@@ -5520,7 +5514,7 @@
         <v>247</v>
       </c>
       <c r="O46" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P46" s="17" t="s">
         <v>248</v>
@@ -5553,7 +5547,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="5"/>
       <c r="B47" s="4" t="s">
         <v>241</v>
@@ -5580,7 +5574,7 @@
         <v>-20.8644</v>
       </c>
       <c r="J47" s="4">
-        <v>-50.9528</v>
+        <v>-50.952800000000003</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>269</v>
@@ -5595,7 +5589,7 @@
         <v>247</v>
       </c>
       <c r="O47" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P47" s="17" t="s">
         <v>248</v>
@@ -5628,7 +5622,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="4" t="s">
         <v>241</v>
@@ -5652,10 +5646,10 @@
         <v>271</v>
       </c>
       <c r="I48" s="4">
-        <v>-20.5785</v>
+        <v>-20.578499999999998</v>
       </c>
       <c r="J48" s="4">
-        <v>-49.9382</v>
+        <v>-49.938200000000002</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>272</v>
@@ -5670,7 +5664,7 @@
         <v>247</v>
       </c>
       <c r="O48" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P48" s="17" t="s">
         <v>248</v>
@@ -5703,7 +5697,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="4" t="s">
         <v>241</v>
@@ -5727,10 +5721,10 @@
         <v>271</v>
       </c>
       <c r="I49" s="4">
-        <v>-20.5785</v>
+        <v>-20.578499999999998</v>
       </c>
       <c r="J49" s="4">
-        <v>-49.9382</v>
+        <v>-49.938200000000002</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>272</v>
@@ -5745,7 +5739,7 @@
         <v>247</v>
       </c>
       <c r="O49" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P49" s="17" t="s">
         <v>248</v>
@@ -5778,7 +5772,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="5"/>
       <c r="B50" s="4" t="s">
         <v>241</v>
@@ -5802,7 +5796,7 @@
         <v>260</v>
       </c>
       <c r="I50" s="4">
-        <v>-20.507</v>
+        <v>-20.507000000000001</v>
       </c>
       <c r="J50" s="4">
         <v>-50.186</v>
@@ -5820,7 +5814,7 @@
         <v>247</v>
       </c>
       <c r="O50" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P50" s="17" t="s">
         <v>248</v>
@@ -5853,7 +5847,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="5"/>
       <c r="B51" s="4" t="s">
         <v>241</v>
@@ -5877,7 +5871,7 @@
         <v>260</v>
       </c>
       <c r="I51" s="4">
-        <v>-20.507</v>
+        <v>-20.507000000000001</v>
       </c>
       <c r="J51" s="4">
         <v>-50.186</v>
@@ -5895,7 +5889,7 @@
         <v>247</v>
       </c>
       <c r="O51" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P51" s="17" t="s">
         <v>248</v>
@@ -5928,7 +5922,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="5"/>
       <c r="B52" s="4" t="s">
         <v>241</v>
@@ -5952,7 +5946,7 @@
         <v>260</v>
       </c>
       <c r="I52" s="4">
-        <v>-20.507</v>
+        <v>-20.507000000000001</v>
       </c>
       <c r="J52" s="4">
         <v>-50.186</v>
@@ -5970,7 +5964,7 @@
         <v>247</v>
       </c>
       <c r="O52" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P52" s="17" t="s">
         <v>248</v>
@@ -6003,7 +5997,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="5"/>
       <c r="B53" s="4" t="s">
         <v>241</v>
@@ -6027,7 +6021,7 @@
         <v>260</v>
       </c>
       <c r="I53" s="4">
-        <v>-20.507</v>
+        <v>-20.507000000000001</v>
       </c>
       <c r="J53" s="4">
         <v>-50.186</v>
@@ -6045,7 +6039,7 @@
         <v>247</v>
       </c>
       <c r="O53" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P53" s="17" t="s">
         <v>248</v>
@@ -6078,7 +6072,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="5"/>
       <c r="B54" s="4" t="s">
         <v>241</v>
@@ -6102,10 +6096,10 @@
         <v>260</v>
       </c>
       <c r="I54" s="4">
-        <v>-20.4866</v>
+        <v>-20.486599999999999</v>
       </c>
       <c r="J54" s="4">
-        <v>-50.3216</v>
+        <v>-50.321599999999997</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>275</v>
@@ -6120,7 +6114,7 @@
         <v>247</v>
       </c>
       <c r="O54" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P54" s="17" t="s">
         <v>248</v>
@@ -6153,7 +6147,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
         <v>241</v>
@@ -6177,10 +6171,10 @@
         <v>260</v>
       </c>
       <c r="I55" s="4">
-        <v>-20.4866</v>
+        <v>-20.486599999999999</v>
       </c>
       <c r="J55" s="4">
-        <v>-50.3216</v>
+        <v>-50.321599999999997</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>275</v>
@@ -6195,7 +6189,7 @@
         <v>247</v>
       </c>
       <c r="O55" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P55" s="17" t="s">
         <v>248</v>
@@ -6228,7 +6222,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="5"/>
       <c r="B56" s="4" t="s">
         <v>241</v>
@@ -6252,10 +6246,10 @@
         <v>260</v>
       </c>
       <c r="I56" s="4">
-        <v>-20.4866</v>
+        <v>-20.486599999999999</v>
       </c>
       <c r="J56" s="4">
-        <v>-50.3216</v>
+        <v>-50.321599999999997</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>275</v>
@@ -6270,7 +6264,7 @@
         <v>247</v>
       </c>
       <c r="O56" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P56" s="17" t="s">
         <v>248</v>
@@ -6303,7 +6297,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="5"/>
       <c r="B57" s="4" t="s">
         <v>241</v>
@@ -6330,7 +6324,7 @@
         <v>-20.5334</v>
       </c>
       <c r="J57" s="4">
-        <v>-50.8167</v>
+        <v>-50.816699999999997</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>277</v>
@@ -6345,7 +6339,7 @@
         <v>247</v>
       </c>
       <c r="O57" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P57" s="17" t="s">
         <v>248</v>
@@ -6378,7 +6372,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="5"/>
       <c r="B58" s="4" t="s">
         <v>241</v>
@@ -6405,7 +6399,7 @@
         <v>-20.5334</v>
       </c>
       <c r="J58" s="4">
-        <v>-50.8167</v>
+        <v>-50.816699999999997</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>277</v>
@@ -6420,7 +6414,7 @@
         <v>247</v>
       </c>
       <c r="O58" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P58" s="17" t="s">
         <v>248</v>
@@ -6453,7 +6447,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="5"/>
       <c r="B59" s="4" t="s">
         <v>241</v>
@@ -6480,7 +6474,7 @@
         <v>-20.5334</v>
       </c>
       <c r="J59" s="4">
-        <v>-50.8167</v>
+        <v>-50.816699999999997</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>277</v>
@@ -6495,7 +6489,7 @@
         <v>247</v>
       </c>
       <c r="O59" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P59" s="17" t="s">
         <v>248</v>
@@ -6528,7 +6522,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="5"/>
       <c r="B60" s="4" t="s">
         <v>241</v>
@@ -6555,7 +6549,7 @@
         <v>-20.5334</v>
       </c>
       <c r="J60" s="4">
-        <v>-50.8167</v>
+        <v>-50.816699999999997</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>277</v>
@@ -6570,7 +6564,7 @@
         <v>247</v>
       </c>
       <c r="O60" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P60" s="17" t="s">
         <v>248</v>
@@ -6603,7 +6597,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="5"/>
       <c r="B61" s="4" t="s">
         <v>241</v>
@@ -6630,7 +6624,7 @@
         <v>-20.9344</v>
       </c>
       <c r="J61" s="4">
-        <v>-48.7917</v>
+        <v>-48.791699999999999</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>280</v>
@@ -6645,7 +6639,7 @@
         <v>247</v>
       </c>
       <c r="O61" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P61" s="17" t="s">
         <v>248</v>
@@ -6678,7 +6672,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="5"/>
       <c r="B62" s="4" t="s">
         <v>241</v>
@@ -6705,7 +6699,7 @@
         <v>-20.9344</v>
       </c>
       <c r="J62" s="4">
-        <v>-48.7917</v>
+        <v>-48.791699999999999</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>280</v>
@@ -6720,7 +6714,7 @@
         <v>247</v>
       </c>
       <c r="O62" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P62" s="17" t="s">
         <v>248</v>
@@ -6753,7 +6747,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="5"/>
       <c r="B63" s="4" t="s">
         <v>241</v>
@@ -6780,7 +6774,7 @@
         <v>-20.9344</v>
       </c>
       <c r="J63" s="4">
-        <v>-48.7917</v>
+        <v>-48.791699999999999</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>280</v>
@@ -6795,7 +6789,7 @@
         <v>247</v>
       </c>
       <c r="O63" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P63" s="17" t="s">
         <v>248</v>
@@ -6828,7 +6822,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="5"/>
       <c r="B64" s="4" t="s">
         <v>241</v>
@@ -6852,10 +6846,10 @@
         <v>260</v>
       </c>
       <c r="I64" s="4">
-        <v>-20.6725</v>
+        <v>-20.672499999999999</v>
       </c>
       <c r="J64" s="4">
-        <v>-49.1281</v>
+        <v>-49.128100000000003</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>282</v>
@@ -6870,7 +6864,7 @@
         <v>247</v>
       </c>
       <c r="O64" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P64" s="17" t="s">
         <v>248</v>
@@ -6903,7 +6897,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="5"/>
       <c r="B65" s="4" t="s">
         <v>241</v>
@@ -6927,10 +6921,10 @@
         <v>260</v>
       </c>
       <c r="I65" s="4">
-        <v>-20.6725</v>
+        <v>-20.672499999999999</v>
       </c>
       <c r="J65" s="4">
-        <v>-49.1281</v>
+        <v>-49.128100000000003</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>282</v>
@@ -6945,7 +6939,7 @@
         <v>247</v>
       </c>
       <c r="O65" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P65" s="17" t="s">
         <v>248</v>
@@ -6978,7 +6972,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="5"/>
       <c r="B66" s="4" t="s">
         <v>241</v>
@@ -7005,7 +6999,7 @@
         <v>-20.5014</v>
       </c>
       <c r="J66" s="4">
-        <v>-49.2113</v>
+        <v>-49.211300000000001</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>283</v>
@@ -7020,7 +7014,7 @@
         <v>247</v>
       </c>
       <c r="O66" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P66" s="17" t="s">
         <v>248</v>
@@ -7053,7 +7047,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="5"/>
       <c r="B67" s="4" t="s">
         <v>241</v>
@@ -7080,7 +7074,7 @@
         <v>-20.5014</v>
       </c>
       <c r="J67" s="4">
-        <v>-49.2113</v>
+        <v>-49.211300000000001</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>283</v>
@@ -7095,7 +7089,7 @@
         <v>247</v>
       </c>
       <c r="O67" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P67" s="17" t="s">
         <v>248</v>
@@ -7128,7 +7122,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="5"/>
       <c r="B68" s="4" t="s">
         <v>241</v>
@@ -7155,7 +7149,7 @@
         <v>-20.5014</v>
       </c>
       <c r="J68" s="4">
-        <v>-49.2113</v>
+        <v>-49.211300000000001</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>283</v>
@@ -7170,7 +7164,7 @@
         <v>247</v>
       </c>
       <c r="O68" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P68" s="17" t="s">
         <v>248</v>
@@ -7203,7 +7197,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="5"/>
       <c r="B69" s="4" t="s">
         <v>241</v>
@@ -7230,7 +7224,7 @@
         <v>-20.2163</v>
       </c>
       <c r="J69" s="4">
-        <v>-49.5429</v>
+        <v>-49.542900000000003</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>285</v>
@@ -7245,7 +7239,7 @@
         <v>247</v>
       </c>
       <c r="O69" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P69" s="17" t="s">
         <v>248</v>
@@ -7278,7 +7272,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="5"/>
       <c r="B70" s="4" t="s">
         <v>241</v>
@@ -7302,10 +7296,10 @@
         <v>287</v>
       </c>
       <c r="I70" s="4">
-        <v>-20.2961</v>
+        <v>-20.296099999999999</v>
       </c>
       <c r="J70" s="4">
-        <v>-49.6348</v>
+        <v>-49.634799999999998</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>288</v>
@@ -7320,7 +7314,7 @@
         <v>247</v>
       </c>
       <c r="O70" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P70" s="17" t="s">
         <v>248</v>
@@ -7353,7 +7347,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="4" t="s">
         <v>289</v>
@@ -7377,10 +7371,10 @@
         <v>287</v>
       </c>
       <c r="I71" s="4">
-        <v>-20.2961</v>
+        <v>-20.296099999999999</v>
       </c>
       <c r="J71" s="4">
-        <v>-49.6348</v>
+        <v>-49.634799999999998</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>288</v>
@@ -7395,7 +7389,7 @@
         <v>247</v>
       </c>
       <c r="O71" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P71" s="17" t="s">
         <v>248</v>
@@ -7428,7 +7422,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="5"/>
       <c r="B72" s="4" t="s">
         <v>290</v>
@@ -7452,10 +7446,10 @@
         <v>287</v>
       </c>
       <c r="I72" s="4">
-        <v>-20.2961</v>
+        <v>-20.296099999999999</v>
       </c>
       <c r="J72" s="4">
-        <v>-49.6348</v>
+        <v>-49.634799999999998</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>288</v>
@@ -7470,7 +7464,7 @@
         <v>247</v>
       </c>
       <c r="O72" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P72" s="17" t="s">
         <v>248</v>
@@ -7503,7 +7497,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1">
       <c r="A73" s="5"/>
       <c r="B73" s="4" t="s">
         <v>241</v>
@@ -7530,7 +7524,7 @@
         <v>-20.2013</v>
       </c>
       <c r="J73" s="4">
-        <v>-49.6794</v>
+        <v>-49.679400000000001</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>291</v>
@@ -7545,7 +7539,7 @@
         <v>247</v>
       </c>
       <c r="O73" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P73" s="17" t="s">
         <v>248</v>
@@ -7578,7 +7572,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="5"/>
       <c r="B74" s="4" t="s">
         <v>241</v>
@@ -7605,7 +7599,7 @@
         <v>-20.2013</v>
       </c>
       <c r="J74" s="4">
-        <v>-49.6794</v>
+        <v>-49.679400000000001</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>291</v>
@@ -7620,7 +7614,7 @@
         <v>247</v>
       </c>
       <c r="O74" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P74" s="17" t="s">
         <v>248</v>
@@ -7653,7 +7647,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="5"/>
       <c r="B75" s="4" t="s">
         <v>241</v>
@@ -7680,7 +7674,7 @@
         <v>-20.2013</v>
       </c>
       <c r="J75" s="4">
-        <v>-49.6794</v>
+        <v>-49.679400000000001</v>
       </c>
       <c r="K75" s="4" t="s">
         <v>291</v>
@@ -7695,7 +7689,7 @@
         <v>247</v>
       </c>
       <c r="O75" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P75" s="17" t="s">
         <v>248</v>
@@ -7728,7 +7722,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="5"/>
       <c r="B76" s="4" t="s">
         <v>241</v>
@@ -7755,7 +7749,7 @@
         <v>-20.2013</v>
       </c>
       <c r="J76" s="4">
-        <v>-49.6794</v>
+        <v>-49.679400000000001</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>291</v>
@@ -7770,7 +7764,7 @@
         <v>247</v>
       </c>
       <c r="O76" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P76" s="17" t="s">
         <v>248</v>
@@ -7803,7 +7797,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="5"/>
       <c r="B77" s="4" t="s">
         <v>241</v>
@@ -7830,7 +7824,7 @@
         <v>-20.2013</v>
       </c>
       <c r="J77" s="4">
-        <v>-49.6794</v>
+        <v>-49.679400000000001</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>291</v>
@@ -7845,7 +7839,7 @@
         <v>247</v>
       </c>
       <c r="O77" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P77" s="17" t="s">
         <v>248</v>
@@ -7878,7 +7872,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="5"/>
       <c r="B78" s="4" t="s">
         <v>241</v>
@@ -7902,10 +7896,10 @@
         <v>287</v>
       </c>
       <c r="I78" s="4">
-        <v>-20.1764</v>
+        <v>-20.176400000000001</v>
       </c>
       <c r="J78" s="4">
-        <v>-49.6472</v>
+        <v>-49.647199999999998</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>293</v>
@@ -7920,7 +7914,7 @@
         <v>247</v>
       </c>
       <c r="O78" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P78" s="17" t="s">
         <v>248</v>
@@ -7953,7 +7947,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1">
       <c r="A79" s="5"/>
       <c r="B79" s="4" t="s">
         <v>241</v>
@@ -7977,10 +7971,10 @@
         <v>287</v>
       </c>
       <c r="I79" s="4">
-        <v>-20.1764</v>
+        <v>-20.176400000000001</v>
       </c>
       <c r="J79" s="4">
-        <v>-49.6472</v>
+        <v>-49.647199999999998</v>
       </c>
       <c r="K79" s="4" t="s">
         <v>293</v>
@@ -7995,7 +7989,7 @@
         <v>247</v>
       </c>
       <c r="O79" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P79" s="17" t="s">
         <v>248</v>
@@ -8028,7 +8022,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1">
       <c r="A80" s="5"/>
       <c r="B80" s="4" t="s">
         <v>241</v>
@@ -8052,10 +8046,10 @@
         <v>287</v>
       </c>
       <c r="I80" s="4">
-        <v>-20.1764</v>
+        <v>-20.176400000000001</v>
       </c>
       <c r="J80" s="4">
-        <v>-49.6472</v>
+        <v>-49.647199999999998</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>293</v>
@@ -8070,7 +8064,7 @@
         <v>247</v>
       </c>
       <c r="O80" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P80" s="17" t="s">
         <v>248</v>
@@ -8103,7 +8097,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1">
       <c r="A81" s="5"/>
       <c r="B81" s="4" t="s">
         <v>241</v>
@@ -8127,10 +8121,10 @@
         <v>287</v>
       </c>
       <c r="I81" s="4">
-        <v>-20.1566</v>
+        <v>-20.156600000000001</v>
       </c>
       <c r="J81" s="4">
-        <v>-49.6553</v>
+        <v>-49.655299999999997</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>294</v>
@@ -8145,7 +8139,7 @@
         <v>247</v>
       </c>
       <c r="O81" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P81" s="17" t="s">
         <v>248</v>
@@ -8178,7 +8172,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1">
       <c r="A82" s="5"/>
       <c r="B82" s="4" t="s">
         <v>241</v>
@@ -8202,10 +8196,10 @@
         <v>287</v>
       </c>
       <c r="I82" s="4">
-        <v>-20.1566</v>
+        <v>-20.156600000000001</v>
       </c>
       <c r="J82" s="4">
-        <v>-49.6553</v>
+        <v>-49.655299999999997</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>294</v>
@@ -8220,7 +8214,7 @@
         <v>247</v>
       </c>
       <c r="O82" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P82" s="17" t="s">
         <v>248</v>
@@ -8253,7 +8247,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1">
       <c r="A83" s="5"/>
       <c r="B83" s="4" t="s">
         <v>241</v>
@@ -8277,10 +8271,10 @@
         <v>287</v>
       </c>
       <c r="I83" s="4">
-        <v>-20.1566</v>
+        <v>-20.156600000000001</v>
       </c>
       <c r="J83" s="4">
-        <v>-49.6553</v>
+        <v>-49.655299999999997</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>294</v>
@@ -8295,7 +8289,7 @@
         <v>247</v>
       </c>
       <c r="O83" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P83" s="17" t="s">
         <v>248</v>
@@ -8328,7 +8322,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1">
       <c r="A84" s="5"/>
       <c r="B84" s="4" t="s">
         <v>241</v>
@@ -8352,10 +8346,10 @@
         <v>260</v>
       </c>
       <c r="I84" s="4">
-        <v>-20.1566</v>
+        <v>-20.156600000000001</v>
       </c>
       <c r="J84" s="4">
-        <v>-49.6553</v>
+        <v>-49.655299999999997</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>294</v>
@@ -8370,7 +8364,7 @@
         <v>247</v>
       </c>
       <c r="O84" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P84" s="17" t="s">
         <v>248</v>
@@ -8403,7 +8397,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1">
       <c r="A85" s="5"/>
       <c r="B85" s="4" t="s">
         <v>241</v>
@@ -8430,7 +8424,7 @@
         <v>-20.0991</v>
       </c>
       <c r="J85" s="4">
-        <v>-49.7522</v>
+        <v>-49.752200000000002</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>295</v>
@@ -8445,7 +8439,7 @@
         <v>247</v>
       </c>
       <c r="O85" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P85" s="17" t="s">
         <v>248</v>
@@ -8478,7 +8472,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1">
       <c r="A86" s="5"/>
       <c r="B86" s="4" t="s">
         <v>241</v>
@@ -8505,7 +8499,7 @@
         <v>-20.0991</v>
       </c>
       <c r="J86" s="4">
-        <v>-49.7522</v>
+        <v>-49.752200000000002</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>295</v>
@@ -8520,7 +8514,7 @@
         <v>247</v>
       </c>
       <c r="O86" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P86" s="17" t="s">
         <v>248</v>
@@ -8553,7 +8547,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1">
       <c r="A87" s="5"/>
       <c r="B87" s="4" t="s">
         <v>241</v>
@@ -8580,7 +8574,7 @@
         <v>-20.0991</v>
       </c>
       <c r="J87" s="4">
-        <v>-49.7522</v>
+        <v>-49.752200000000002</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>295</v>
@@ -8595,7 +8589,7 @@
         <v>247</v>
       </c>
       <c r="O87" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P87" s="17" t="s">
         <v>248</v>
@@ -8628,7 +8622,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1">
       <c r="A88" s="5"/>
       <c r="B88" s="4" t="s">
         <v>241</v>
@@ -8652,7 +8646,7 @@
         <v>287</v>
       </c>
       <c r="I88" s="4">
-        <v>-20.043</v>
+        <v>-20.042999999999999</v>
       </c>
       <c r="J88" s="4">
         <v>-49.869</v>
@@ -8670,7 +8664,7 @@
         <v>247</v>
       </c>
       <c r="O88" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P88" s="17" t="s">
         <v>248</v>
@@ -8703,7 +8697,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1">
       <c r="A89" s="5"/>
       <c r="B89" s="4" t="s">
         <v>241</v>
@@ -8727,7 +8721,7 @@
         <v>287</v>
       </c>
       <c r="I89" s="4">
-        <v>-20.043</v>
+        <v>-20.042999999999999</v>
       </c>
       <c r="J89" s="4">
         <v>-49.869</v>
@@ -8745,7 +8739,7 @@
         <v>247</v>
       </c>
       <c r="O89" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P89" s="17" t="s">
         <v>248</v>
@@ -8778,7 +8772,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1">
       <c r="A90" s="5"/>
       <c r="B90" s="4" t="s">
         <v>298</v>
@@ -8802,10 +8796,10 @@
         <v>302</v>
       </c>
       <c r="I90" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J90" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>303</v>
@@ -8820,7 +8814,7 @@
         <v>304</v>
       </c>
       <c r="O90" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P90" s="4" t="s">
         <v>305</v>
@@ -8853,7 +8847,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1">
       <c r="A91" s="5"/>
       <c r="B91" s="4" t="s">
         <v>298</v>
@@ -8877,10 +8871,10 @@
         <v>302</v>
       </c>
       <c r="I91" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J91" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>303</v>
@@ -8895,7 +8889,7 @@
         <v>304</v>
       </c>
       <c r="O91" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P91" s="4" t="s">
         <v>305</v>
@@ -8928,7 +8922,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1">
       <c r="A92" s="5"/>
       <c r="B92" s="4" t="s">
         <v>298</v>
@@ -8952,10 +8946,10 @@
         <v>302</v>
       </c>
       <c r="I92" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J92" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>303</v>
@@ -8970,7 +8964,7 @@
         <v>304</v>
       </c>
       <c r="O92" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P92" s="4" t="s">
         <v>305</v>
@@ -9003,7 +8997,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1">
       <c r="A93" s="5"/>
       <c r="B93" s="4" t="s">
         <v>298</v>
@@ -9027,10 +9021,10 @@
         <v>318</v>
       </c>
       <c r="I93" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J93" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>303</v>
@@ -9045,7 +9039,7 @@
         <v>304</v>
       </c>
       <c r="O93" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P93" s="4" t="s">
         <v>305</v>
@@ -9078,7 +9072,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1">
       <c r="A94" s="5"/>
       <c r="B94" s="4" t="s">
         <v>298</v>
@@ -9102,10 +9096,10 @@
         <v>320</v>
       </c>
       <c r="I94" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J94" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>303</v>
@@ -9120,7 +9114,7 @@
         <v>304</v>
       </c>
       <c r="O94" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P94" s="4" t="s">
         <v>305</v>
@@ -9153,7 +9147,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1">
       <c r="A95" s="5"/>
       <c r="B95" s="4" t="s">
         <v>298</v>
@@ -9177,10 +9171,10 @@
         <v>320</v>
       </c>
       <c r="I95" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J95" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>303</v>
@@ -9195,7 +9189,7 @@
         <v>304</v>
       </c>
       <c r="O95" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P95" s="4" t="s">
         <v>305</v>
@@ -9228,7 +9222,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1">
       <c r="A96" s="5"/>
       <c r="B96" s="4" t="s">
         <v>298</v>
@@ -9252,10 +9246,10 @@
         <v>320</v>
       </c>
       <c r="I96" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J96" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>303</v>
@@ -9270,7 +9264,7 @@
         <v>304</v>
       </c>
       <c r="O96" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P96" s="4" t="s">
         <v>305</v>
@@ -9303,7 +9297,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1">
       <c r="A97" s="5"/>
       <c r="B97" s="4" t="s">
         <v>298</v>
@@ -9327,10 +9321,10 @@
         <v>325</v>
       </c>
       <c r="I97" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J97" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K97" s="4" t="s">
         <v>303</v>
@@ -9345,7 +9339,7 @@
         <v>304</v>
       </c>
       <c r="O97" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P97" s="4" t="s">
         <v>305</v>
@@ -9378,7 +9372,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1">
       <c r="A98" s="5"/>
       <c r="B98" s="4" t="s">
         <v>298</v>
@@ -9402,10 +9396,10 @@
         <v>329</v>
       </c>
       <c r="I98" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J98" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>303</v>
@@ -9420,7 +9414,7 @@
         <v>304</v>
       </c>
       <c r="O98" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P98" s="4" t="s">
         <v>305</v>
@@ -9453,7 +9447,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1">
       <c r="A99" s="5"/>
       <c r="B99" s="4" t="s">
         <v>298</v>
@@ -9477,10 +9471,10 @@
         <v>332</v>
       </c>
       <c r="I99" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J99" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K99" s="4" t="s">
         <v>303</v>
@@ -9495,7 +9489,7 @@
         <v>304</v>
       </c>
       <c r="O99" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P99" s="4" t="s">
         <v>305</v>
@@ -9528,7 +9522,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="4" t="s">
         <v>298</v>
@@ -9552,10 +9546,10 @@
         <v>332</v>
       </c>
       <c r="I100" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J100" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>303</v>
@@ -9570,7 +9564,7 @@
         <v>304</v>
       </c>
       <c r="O100" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P100" s="4" t="s">
         <v>305</v>
@@ -9603,7 +9597,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1">
       <c r="A101" s="5"/>
       <c r="B101" s="4" t="s">
         <v>298</v>
@@ -9627,10 +9621,10 @@
         <v>332</v>
       </c>
       <c r="I101" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J101" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K101" s="4" t="s">
         <v>303</v>
@@ -9645,7 +9639,7 @@
         <v>304</v>
       </c>
       <c r="O101" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P101" s="4" t="s">
         <v>305</v>
@@ -9678,7 +9672,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1">
       <c r="A102" s="5"/>
       <c r="B102" s="4" t="s">
         <v>298</v>
@@ -9702,10 +9696,10 @@
         <v>339</v>
       </c>
       <c r="I102" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J102" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>303</v>
@@ -9720,7 +9714,7 @@
         <v>304</v>
       </c>
       <c r="O102" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P102" s="4" t="s">
         <v>305</v>
@@ -9753,7 +9747,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1">
       <c r="A103" s="5"/>
       <c r="B103" s="4" t="s">
         <v>298</v>
@@ -9777,10 +9771,10 @@
         <v>342</v>
       </c>
       <c r="I103" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J103" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K103" s="4" t="s">
         <v>303</v>
@@ -9795,7 +9789,7 @@
         <v>304</v>
       </c>
       <c r="O103" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P103" s="4" t="s">
         <v>305</v>
@@ -9828,7 +9822,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1">
       <c r="A104" s="5"/>
       <c r="B104" s="4" t="s">
         <v>298</v>
@@ -9852,10 +9846,10 @@
         <v>332</v>
       </c>
       <c r="I104" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J104" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K104" s="4" t="s">
         <v>303</v>
@@ -9870,7 +9864,7 @@
         <v>304</v>
       </c>
       <c r="O104" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P104" s="4" t="s">
         <v>305</v>
@@ -9903,7 +9897,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1">
       <c r="A105" s="5"/>
       <c r="B105" s="4" t="s">
         <v>298</v>
@@ -9927,10 +9921,10 @@
         <v>342</v>
       </c>
       <c r="I105" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J105" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>303</v>
@@ -9945,7 +9939,7 @@
         <v>304</v>
       </c>
       <c r="O105" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P105" s="4" t="s">
         <v>305</v>
@@ -9978,7 +9972,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1">
       <c r="A106" s="5"/>
       <c r="B106" s="4" t="s">
         <v>298</v>
@@ -10002,10 +9996,10 @@
         <v>347</v>
       </c>
       <c r="I106" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J106" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K106" s="4" t="s">
         <v>303</v>
@@ -10020,7 +10014,7 @@
         <v>304</v>
       </c>
       <c r="O106" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P106" s="4" t="s">
         <v>305</v>
@@ -10053,7 +10047,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1">
       <c r="A107" s="5"/>
       <c r="B107" s="4" t="s">
         <v>298</v>
@@ -10077,10 +10071,10 @@
         <v>350</v>
       </c>
       <c r="I107" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J107" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K107" s="4" t="s">
         <v>303</v>
@@ -10095,7 +10089,7 @@
         <v>304</v>
       </c>
       <c r="O107" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P107" s="4" t="s">
         <v>305</v>
@@ -10128,7 +10122,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1">
       <c r="A108" s="5"/>
       <c r="B108" s="4" t="s">
         <v>298</v>
@@ -10152,10 +10146,10 @@
         <v>353</v>
       </c>
       <c r="I108" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J108" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K108" s="4" t="s">
         <v>303</v>
@@ -10170,7 +10164,7 @@
         <v>304</v>
       </c>
       <c r="O108" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P108" s="4" t="s">
         <v>305</v>
@@ -10203,7 +10197,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1">
       <c r="A109" s="5"/>
       <c r="B109" s="4" t="s">
         <v>298</v>
@@ -10227,10 +10221,10 @@
         <v>356</v>
       </c>
       <c r="I109" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J109" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K109" s="4" t="s">
         <v>303</v>
@@ -10245,7 +10239,7 @@
         <v>304</v>
       </c>
       <c r="O109" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P109" s="4" t="s">
         <v>305</v>
@@ -10278,7 +10272,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1">
       <c r="A110" s="5"/>
       <c r="B110" s="4" t="s">
         <v>298</v>
@@ -10302,10 +10296,10 @@
         <v>347</v>
       </c>
       <c r="I110" s="18">
-        <v>-22.443778</v>
+        <v>-22.443777999999998</v>
       </c>
       <c r="J110" s="12">
-        <v>-42.908444</v>
+        <v>-42.908444000000003</v>
       </c>
       <c r="K110" s="4" t="s">
         <v>303</v>
@@ -10320,7 +10314,7 @@
         <v>304</v>
       </c>
       <c r="O110" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P110" s="4" t="s">
         <v>305</v>
@@ -10353,7 +10347,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1">
       <c r="A111" s="5"/>
       <c r="B111" s="4" t="s">
         <v>357</v>
@@ -10393,7 +10387,7 @@
         <v>361</v>
       </c>
       <c r="O111" s="4">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P111" s="4" t="s">
         <v>362</v>
@@ -10426,7 +10420,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="112" ht="15.0" customHeight="1">
+    <row r="112" spans="1:25" ht="15" customHeight="1">
       <c r="A112" s="5"/>
       <c r="B112" s="4" t="s">
         <v>357</v>
@@ -10468,7 +10462,7 @@
         <v>361</v>
       </c>
       <c r="O112" s="4">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P112" s="4" t="s">
         <v>362</v>
@@ -10501,7 +10495,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:31" ht="15.75" customHeight="1">
       <c r="A113" s="8" t="s">
         <v>94</v>
       </c>
@@ -10543,7 +10537,7 @@
         <v>361</v>
       </c>
       <c r="O113" s="8">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P113" s="8" t="s">
         <v>362</v>
@@ -10582,7 +10576,7 @@
       <c r="AD113" s="11"/>
       <c r="AE113" s="11"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:31" ht="15.75" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="4" t="s">
         <v>357</v>
@@ -10624,7 +10618,7 @@
         <v>361</v>
       </c>
       <c r="O114" s="4">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P114" s="4" t="s">
         <v>362</v>
@@ -10657,7 +10651,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:31" ht="15.75" customHeight="1">
       <c r="B115" s="14" t="s">
         <v>378</v>
       </c>
@@ -10678,10 +10672,10 @@
       </c>
       <c r="H115" s="22"/>
       <c r="I115" s="22">
-        <v>32.478846</v>
+        <v>32.478845999999997</v>
       </c>
       <c r="J115" s="23">
-        <v>-85.609963</v>
+        <v>-85.609962999999993</v>
       </c>
       <c r="K115" s="14" t="s">
         <v>381</v>
@@ -10696,7 +10690,7 @@
         <v>382</v>
       </c>
       <c r="O115" s="14">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="P115" s="14" t="s">
         <v>383</v>
@@ -10729,7 +10723,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:31" ht="15.75" customHeight="1">
       <c r="B116" s="14" t="s">
         <v>378</v>
       </c>
@@ -10750,10 +10744,10 @@
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="22">
-        <v>32.478846</v>
+        <v>32.478845999999997</v>
       </c>
       <c r="J116" s="23">
-        <v>-85.609963</v>
+        <v>-85.609962999999993</v>
       </c>
       <c r="K116" s="14" t="s">
         <v>381</v>
@@ -10768,7 +10762,7 @@
         <v>382</v>
       </c>
       <c r="O116" s="14">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="P116" s="14" t="s">
         <v>383</v>
@@ -10801,7 +10795,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:31" ht="15.75" customHeight="1">
       <c r="B117" s="14" t="s">
         <v>378</v>
       </c>
@@ -10822,10 +10816,10 @@
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="22">
-        <v>32.478846</v>
+        <v>32.478845999999997</v>
       </c>
       <c r="J117" s="23">
-        <v>-85.609963</v>
+        <v>-85.609962999999993</v>
       </c>
       <c r="K117" s="14" t="s">
         <v>381</v>
@@ -10840,7 +10834,7 @@
         <v>382</v>
       </c>
       <c r="O117" s="14">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="P117" s="14" t="s">
         <v>383</v>
@@ -10873,7 +10867,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:31" ht="15.75" customHeight="1">
       <c r="B118" s="14" t="s">
         <v>378</v>
       </c>
@@ -10894,10 +10888,10 @@
       </c>
       <c r="H118" s="22"/>
       <c r="I118" s="22">
-        <v>32.478846</v>
+        <v>32.478845999999997</v>
       </c>
       <c r="J118" s="23">
-        <v>-85.609963</v>
+        <v>-85.609962999999993</v>
       </c>
       <c r="K118" s="14" t="s">
         <v>381</v>
@@ -10912,7 +10906,7 @@
         <v>382</v>
       </c>
       <c r="O118" s="14">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="P118" s="14" t="s">
         <v>383</v>
@@ -10945,7 +10939,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:31" ht="15.75" customHeight="1">
       <c r="B119" s="14" t="s">
         <v>378</v>
       </c>
@@ -10966,10 +10960,10 @@
       </c>
       <c r="H119" s="22"/>
       <c r="I119" s="22">
-        <v>32.478846</v>
+        <v>32.478845999999997</v>
       </c>
       <c r="J119" s="23">
-        <v>-85.609963</v>
+        <v>-85.609962999999993</v>
       </c>
       <c r="K119" s="14" t="s">
         <v>381</v>
@@ -10984,7 +10978,7 @@
         <v>382</v>
       </c>
       <c r="O119" s="14">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="P119" s="14" t="s">
         <v>383</v>
@@ -11017,7 +11011,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:31" ht="15.75" customHeight="1">
       <c r="B120" s="14" t="s">
         <v>378</v>
       </c>
@@ -11038,10 +11032,10 @@
       </c>
       <c r="H120" s="22"/>
       <c r="I120" s="22">
-        <v>32.478846</v>
+        <v>32.478845999999997</v>
       </c>
       <c r="J120" s="23">
-        <v>-85.609963</v>
+        <v>-85.609962999999993</v>
       </c>
       <c r="K120" s="14" t="s">
         <v>381</v>
@@ -11056,7 +11050,7 @@
         <v>382</v>
       </c>
       <c r="O120" s="14">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="P120" s="14" t="s">
         <v>383</v>
@@ -11089,7 +11083,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:31" ht="15.75" customHeight="1">
       <c r="B121" s="14" t="s">
         <v>378</v>
       </c>
@@ -11110,10 +11104,10 @@
       </c>
       <c r="H121" s="22"/>
       <c r="I121" s="22">
-        <v>32.478846</v>
+        <v>32.478845999999997</v>
       </c>
       <c r="J121" s="23">
-        <v>-85.609963</v>
+        <v>-85.609962999999993</v>
       </c>
       <c r="K121" s="14" t="s">
         <v>381</v>
@@ -11128,7 +11122,7 @@
         <v>382</v>
       </c>
       <c r="O121" s="14">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="P121" s="14" t="s">
         <v>383</v>
@@ -11161,7 +11155,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:31" ht="15.75" customHeight="1">
       <c r="A122" s="14" t="s">
         <v>399</v>
       </c>
@@ -11185,7 +11179,7 @@
       </c>
       <c r="H122" s="14"/>
       <c r="I122" s="14">
-        <v>33.870608</v>
+        <v>33.870607999999997</v>
       </c>
       <c r="J122" s="14">
         <v>-117.118572</v>
@@ -11203,7 +11197,7 @@
         <v>404</v>
       </c>
       <c r="O122" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P122" s="14" t="s">
         <v>405</v>
@@ -11236,7 +11230,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:31" ht="15.75" customHeight="1">
       <c r="B123" s="14" t="s">
         <v>400</v>
       </c>
@@ -11257,7 +11251,7 @@
       </c>
       <c r="H123" s="14"/>
       <c r="I123" s="14">
-        <v>33.870608</v>
+        <v>33.870607999999997</v>
       </c>
       <c r="J123" s="14">
         <v>-117.118572</v>
@@ -11275,7 +11269,7 @@
         <v>404</v>
       </c>
       <c r="O123" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P123" s="14" t="s">
         <v>405</v>
@@ -11308,7 +11302,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:31" ht="15.75" customHeight="1">
       <c r="A124" s="14" t="s">
         <v>411</v>
       </c>
@@ -11350,7 +11344,7 @@
         <v>404</v>
       </c>
       <c r="O124" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P124" s="14" t="s">
         <v>405</v>
@@ -11383,7 +11377,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:31" ht="15.75" customHeight="1">
       <c r="B125" s="14" t="s">
         <v>413</v>
       </c>
@@ -11404,10 +11398,10 @@
       </c>
       <c r="H125" s="14"/>
       <c r="I125" s="14">
-        <v>-25.625431</v>
+        <v>-25.625430999999999</v>
       </c>
       <c r="J125" s="14">
-        <v>-54.460722</v>
+        <v>-54.460721999999997</v>
       </c>
       <c r="K125" s="14" t="s">
         <v>416</v>
@@ -11422,7 +11416,7 @@
         <v>417</v>
       </c>
       <c r="O125" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P125" s="14" t="s">
         <v>418</v>
@@ -11455,7 +11449,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:31" ht="15.75" customHeight="1">
       <c r="B126" s="14" t="s">
         <v>413</v>
       </c>
@@ -11479,7 +11473,7 @@
         <v>-16.665008</v>
       </c>
       <c r="J126" s="14">
-        <v>-56.793894</v>
+        <v>-56.793894000000002</v>
       </c>
       <c r="K126" s="14" t="s">
         <v>425</v>
@@ -11494,7 +11488,7 @@
         <v>417</v>
       </c>
       <c r="O126" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P126" s="14" t="s">
         <v>418</v>
@@ -11527,7 +11521,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:31" ht="15.75" customHeight="1">
       <c r="B127" s="14" t="s">
         <v>413</v>
       </c>
@@ -11548,10 +11542,10 @@
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="22">
-        <v>-22.488386</v>
+        <v>-22.488385999999998</v>
       </c>
       <c r="J127" s="23">
-        <v>-43.001364</v>
+        <v>-43.001364000000002</v>
       </c>
       <c r="K127" s="14" t="s">
         <v>427</v>
@@ -11566,7 +11560,7 @@
         <v>417</v>
       </c>
       <c r="O127" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P127" s="14" t="s">
         <v>418</v>
@@ -11599,7 +11593,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:31" ht="15.75" customHeight="1">
       <c r="B128" s="14" t="s">
         <v>413</v>
       </c>
@@ -11620,10 +11614,10 @@
       </c>
       <c r="H128" s="14"/>
       <c r="I128" s="14">
-        <v>-23.361814</v>
+        <v>-23.361813999999999</v>
       </c>
       <c r="J128" s="23">
-        <v>-44.844125</v>
+        <v>-44.844124999999998</v>
       </c>
       <c r="K128" s="14" t="s">
         <v>428</v>
@@ -11638,7 +11632,7 @@
         <v>417</v>
       </c>
       <c r="O128" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P128" s="14" t="s">
         <v>418</v>
@@ -11671,7 +11665,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="2:25" ht="15.75" customHeight="1">
       <c r="B129" s="14" t="s">
         <v>413</v>
       </c>
@@ -11695,7 +11689,7 @@
         <v>-22.752164</v>
       </c>
       <c r="J129" s="14">
-        <v>-44.617392</v>
+        <v>-44.617392000000002</v>
       </c>
       <c r="K129" s="14" t="s">
         <v>429</v>
@@ -11710,7 +11704,7 @@
         <v>417</v>
       </c>
       <c r="O129" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P129" s="14" t="s">
         <v>418</v>
@@ -11743,7 +11737,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="2:25" ht="15.75" customHeight="1">
       <c r="B130" s="14" t="s">
         <v>413</v>
       </c>
@@ -11764,10 +11758,10 @@
       </c>
       <c r="H130" s="14"/>
       <c r="I130" s="14">
-        <v>-25.625431</v>
+        <v>-25.625430999999999</v>
       </c>
       <c r="J130" s="14">
-        <v>-54.460722</v>
+        <v>-54.460721999999997</v>
       </c>
       <c r="K130" s="14" t="s">
         <v>416</v>
@@ -11782,7 +11776,7 @@
         <v>417</v>
       </c>
       <c r="O130" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P130" s="14" t="s">
         <v>418</v>
@@ -11815,7 +11809,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="2:25" ht="15.75" customHeight="1">
       <c r="B131" s="14" t="s">
         <v>413</v>
       </c>
@@ -11839,7 +11833,7 @@
         <v>-15.4053</v>
       </c>
       <c r="J131" s="14">
-        <v>-55.835294</v>
+        <v>-55.835293999999998</v>
       </c>
       <c r="K131" s="14" t="s">
         <v>431</v>
@@ -11854,7 +11848,7 @@
         <v>417</v>
       </c>
       <c r="O131" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P131" s="14" t="s">
         <v>418</v>
@@ -11887,7 +11881,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="2:25" ht="15.75" customHeight="1">
       <c r="B132" s="14" t="s">
         <v>413</v>
       </c>
@@ -11911,7 +11905,7 @@
         <v>-22.752164</v>
       </c>
       <c r="J132" s="14">
-        <v>-44.617392</v>
+        <v>-44.617392000000002</v>
       </c>
       <c r="K132" s="14" t="s">
         <v>429</v>
@@ -11926,7 +11920,7 @@
         <v>417</v>
       </c>
       <c r="O132" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P132" s="14" t="s">
         <v>418</v>
@@ -11959,7 +11953,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="2:25" ht="15.75" customHeight="1">
       <c r="B133" s="14" t="s">
         <v>413</v>
       </c>
@@ -11980,10 +11974,10 @@
       </c>
       <c r="H133" s="14"/>
       <c r="I133" s="14">
-        <v>-25.625431</v>
+        <v>-25.625430999999999</v>
       </c>
       <c r="J133" s="14">
-        <v>-54.460722</v>
+        <v>-54.460721999999997</v>
       </c>
       <c r="K133" s="14" t="s">
         <v>416</v>
@@ -11998,7 +11992,7 @@
         <v>417</v>
       </c>
       <c r="O133" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P133" s="14" t="s">
         <v>418</v>
@@ -12031,7 +12025,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="2:25" ht="15.75" customHeight="1">
       <c r="B134" s="14" t="s">
         <v>413</v>
       </c>
@@ -12055,7 +12049,7 @@
         <v>-15.4053</v>
       </c>
       <c r="J134" s="14">
-        <v>-55.835294</v>
+        <v>-55.835293999999998</v>
       </c>
       <c r="K134" s="14" t="s">
         <v>431</v>
@@ -12070,7 +12064,7 @@
         <v>417</v>
       </c>
       <c r="O134" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P134" s="14" t="s">
         <v>418</v>
@@ -12103,7 +12097,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="2:25" ht="15.75" customHeight="1">
       <c r="B135" s="14" t="s">
         <v>413</v>
       </c>
@@ -12124,10 +12118,10 @@
       </c>
       <c r="H135" s="14"/>
       <c r="I135" s="14">
-        <v>-23.361814</v>
+        <v>-23.361813999999999</v>
       </c>
       <c r="J135" s="23">
-        <v>-44.844125</v>
+        <v>-44.844124999999998</v>
       </c>
       <c r="K135" s="14" t="s">
         <v>428</v>
@@ -12142,7 +12136,7 @@
         <v>417</v>
       </c>
       <c r="O135" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P135" s="14" t="s">
         <v>418</v>
@@ -12175,7 +12169,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="2:25" ht="15.75" customHeight="1">
       <c r="B136" s="14" t="s">
         <v>413</v>
       </c>
@@ -12199,7 +12193,7 @@
         <v>-15.4053</v>
       </c>
       <c r="J136" s="14">
-        <v>-55.835294</v>
+        <v>-55.835293999999998</v>
       </c>
       <c r="K136" s="14" t="s">
         <v>431</v>
@@ -12214,7 +12208,7 @@
         <v>417</v>
       </c>
       <c r="O136" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P136" s="14" t="s">
         <v>418</v>
@@ -12247,7 +12241,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="2:25" ht="15.75" customHeight="1">
       <c r="B137" s="14" t="s">
         <v>413</v>
       </c>
@@ -12268,10 +12262,10 @@
       </c>
       <c r="H137" s="22"/>
       <c r="I137" s="22">
-        <v>-22.488386</v>
+        <v>-22.488385999999998</v>
       </c>
       <c r="J137" s="23">
-        <v>-43.001364</v>
+        <v>-43.001364000000002</v>
       </c>
       <c r="K137" s="14" t="s">
         <v>427</v>
@@ -12286,7 +12280,7 @@
         <v>417</v>
       </c>
       <c r="O137" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P137" s="14" t="s">
         <v>418</v>
@@ -12319,7 +12313,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="2:25" ht="15.75" customHeight="1">
       <c r="B138" s="14" t="s">
         <v>413</v>
       </c>
@@ -12340,10 +12334,10 @@
       </c>
       <c r="H138" s="14"/>
       <c r="I138" s="14">
-        <v>-23.361814</v>
+        <v>-23.361813999999999</v>
       </c>
       <c r="J138" s="23">
-        <v>-44.844125</v>
+        <v>-44.844124999999998</v>
       </c>
       <c r="K138" s="14" t="s">
         <v>428</v>
@@ -12358,7 +12352,7 @@
         <v>417</v>
       </c>
       <c r="O138" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P138" s="14" t="s">
         <v>418</v>
@@ -12391,7 +12385,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="2:25" ht="15.75" customHeight="1">
       <c r="B139" s="14" t="s">
         <v>413</v>
       </c>
@@ -12412,10 +12406,10 @@
       </c>
       <c r="H139" s="14"/>
       <c r="I139" s="14">
-        <v>-25.625431</v>
+        <v>-25.625430999999999</v>
       </c>
       <c r="J139" s="14">
-        <v>-54.460722</v>
+        <v>-54.460721999999997</v>
       </c>
       <c r="K139" s="14" t="s">
         <v>416</v>
@@ -12430,7 +12424,7 @@
         <v>417</v>
       </c>
       <c r="O139" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P139" s="14" t="s">
         <v>418</v>
@@ -12463,7 +12457,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="2:25" ht="15.75" customHeight="1">
       <c r="B140" s="14" t="s">
         <v>413</v>
       </c>
@@ -12487,7 +12481,7 @@
         <v>-15.4053</v>
       </c>
       <c r="J140" s="14">
-        <v>-55.835294</v>
+        <v>-55.835293999999998</v>
       </c>
       <c r="K140" s="14" t="s">
         <v>431</v>
@@ -12502,7 +12496,7 @@
         <v>417</v>
       </c>
       <c r="O140" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P140" s="14" t="s">
         <v>418</v>
@@ -12535,7 +12529,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="2:25" ht="15.75" customHeight="1">
       <c r="B141" s="14" t="s">
         <v>413</v>
       </c>
@@ -12559,7 +12553,7 @@
         <v>-16.665008</v>
       </c>
       <c r="J141" s="14">
-        <v>-56.793894</v>
+        <v>-56.793894000000002</v>
       </c>
       <c r="K141" s="14" t="s">
         <v>425</v>
@@ -12574,7 +12568,7 @@
         <v>417</v>
       </c>
       <c r="O141" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P141" s="14" t="s">
         <v>418</v>
@@ -12607,7 +12601,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="2:25" ht="15.75" customHeight="1">
       <c r="B142" s="14" t="s">
         <v>413</v>
       </c>
@@ -12628,10 +12622,10 @@
       </c>
       <c r="H142" s="14"/>
       <c r="I142" s="14">
-        <v>-23.361814</v>
+        <v>-23.361813999999999</v>
       </c>
       <c r="J142" s="23">
-        <v>-44.844125</v>
+        <v>-44.844124999999998</v>
       </c>
       <c r="K142" s="14" t="s">
         <v>428</v>
@@ -12646,7 +12640,7 @@
         <v>417</v>
       </c>
       <c r="O142" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P142" s="14" t="s">
         <v>418</v>
@@ -12679,7 +12673,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="2:25" ht="15.75" customHeight="1">
       <c r="B143" s="14" t="s">
         <v>413</v>
       </c>
@@ -12703,7 +12697,7 @@
         <v>-22.752164</v>
       </c>
       <c r="J143" s="14">
-        <v>-44.617392</v>
+        <v>-44.617392000000002</v>
       </c>
       <c r="K143" s="14" t="s">
         <v>429</v>
@@ -12718,7 +12712,7 @@
         <v>417</v>
       </c>
       <c r="O143" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P143" s="14" t="s">
         <v>418</v>
@@ -12751,7 +12745,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="2:25" ht="15.75" customHeight="1">
       <c r="B144" s="14" t="s">
         <v>413</v>
       </c>
@@ -12772,10 +12766,10 @@
       </c>
       <c r="H144" s="14"/>
       <c r="I144" s="14">
-        <v>-25.625431</v>
+        <v>-25.625430999999999</v>
       </c>
       <c r="J144" s="14">
-        <v>-54.460722</v>
+        <v>-54.460721999999997</v>
       </c>
       <c r="K144" s="14" t="s">
         <v>416</v>
@@ -12790,7 +12784,7 @@
         <v>417</v>
       </c>
       <c r="O144" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P144" s="14" t="s">
         <v>418</v>
@@ -12823,7 +12817,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="2:25" ht="15.75" customHeight="1">
       <c r="B145" s="14" t="s">
         <v>413</v>
       </c>
@@ -12847,7 +12841,7 @@
         <v>-15.4053</v>
       </c>
       <c r="J145" s="14">
-        <v>-55.835294</v>
+        <v>-55.835293999999998</v>
       </c>
       <c r="K145" s="14" t="s">
         <v>431</v>
@@ -12862,7 +12856,7 @@
         <v>417</v>
       </c>
       <c r="O145" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P145" s="14" t="s">
         <v>418</v>
@@ -12895,7 +12889,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="2:25" ht="15.75" customHeight="1">
       <c r="B146" s="14" t="s">
         <v>413</v>
       </c>
@@ -12916,10 +12910,10 @@
       </c>
       <c r="H146" s="14"/>
       <c r="I146" s="14">
-        <v>-23.361814</v>
+        <v>-23.361813999999999</v>
       </c>
       <c r="J146" s="23">
-        <v>-44.844125</v>
+        <v>-44.844124999999998</v>
       </c>
       <c r="K146" s="14" t="s">
         <v>428</v>
@@ -12934,7 +12928,7 @@
         <v>417</v>
       </c>
       <c r="O146" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P146" s="14" t="s">
         <v>418</v>
@@ -12967,7 +12961,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="2:25" ht="15.75" customHeight="1">
       <c r="B147" s="14" t="s">
         <v>413</v>
       </c>
@@ -12991,7 +12985,7 @@
         <v>-22.752164</v>
       </c>
       <c r="J147" s="14">
-        <v>-44.617392</v>
+        <v>-44.617392000000002</v>
       </c>
       <c r="K147" s="14" t="s">
         <v>429</v>
@@ -13006,7 +13000,7 @@
         <v>417</v>
       </c>
       <c r="O147" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P147" s="14" t="s">
         <v>418</v>
@@ -13039,7 +13033,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="2:25" ht="15.75" customHeight="1">
       <c r="B148" s="14" t="s">
         <v>413</v>
       </c>
@@ -13060,10 +13054,10 @@
       </c>
       <c r="H148" s="14"/>
       <c r="I148" s="14">
-        <v>-25.625431</v>
+        <v>-25.625430999999999</v>
       </c>
       <c r="J148" s="14">
-        <v>-54.460722</v>
+        <v>-54.460721999999997</v>
       </c>
       <c r="K148" s="14" t="s">
         <v>416</v>
@@ -13078,7 +13072,7 @@
         <v>417</v>
       </c>
       <c r="O148" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P148" s="14" t="s">
         <v>418</v>
@@ -13111,7 +13105,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="2:25" ht="15.75" customHeight="1">
       <c r="B149" s="14" t="s">
         <v>413</v>
       </c>
@@ -13132,10 +13126,10 @@
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="22">
-        <v>-22.488386</v>
+        <v>-22.488385999999998</v>
       </c>
       <c r="J149" s="23">
-        <v>-43.001364</v>
+        <v>-43.001364000000002</v>
       </c>
       <c r="K149" s="14" t="s">
         <v>427</v>
@@ -13150,7 +13144,7 @@
         <v>417</v>
       </c>
       <c r="O149" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P149" s="14" t="s">
         <v>418</v>
@@ -13183,7 +13177,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="2:25" ht="15.75" customHeight="1">
       <c r="B150" s="14" t="s">
         <v>413</v>
       </c>
@@ -13204,10 +13198,10 @@
       </c>
       <c r="H150" s="14"/>
       <c r="I150" s="14">
-        <v>-23.361814</v>
+        <v>-23.361813999999999</v>
       </c>
       <c r="J150" s="23">
-        <v>-44.844125</v>
+        <v>-44.844124999999998</v>
       </c>
       <c r="K150" s="14" t="s">
         <v>428</v>
@@ -13222,7 +13216,7 @@
         <v>417</v>
       </c>
       <c r="O150" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P150" s="14" t="s">
         <v>418</v>
@@ -13255,7 +13249,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="2:25" ht="15.75" customHeight="1">
       <c r="B151" s="14" t="s">
         <v>413</v>
       </c>
@@ -13279,7 +13273,7 @@
         <v>-22.752164</v>
       </c>
       <c r="J151" s="14">
-        <v>-44.617392</v>
+        <v>-44.617392000000002</v>
       </c>
       <c r="K151" s="14" t="s">
         <v>429</v>
@@ -13294,7 +13288,7 @@
         <v>417</v>
       </c>
       <c r="O151" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P151" s="14" t="s">
         <v>418</v>
@@ -13327,7 +13321,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="2:25" ht="15.75" customHeight="1">
       <c r="B152" s="14" t="s">
         <v>413</v>
       </c>
@@ -13348,10 +13342,10 @@
       </c>
       <c r="H152" s="22"/>
       <c r="I152" s="22">
-        <v>-22.488386</v>
+        <v>-22.488385999999998</v>
       </c>
       <c r="J152" s="23">
-        <v>-43.001364</v>
+        <v>-43.001364000000002</v>
       </c>
       <c r="K152" s="14" t="s">
         <v>427</v>
@@ -13366,7 +13360,7 @@
         <v>417</v>
       </c>
       <c r="O152" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P152" s="14" t="s">
         <v>418</v>
@@ -13399,7 +13393,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="2:25" ht="15.75" customHeight="1">
       <c r="B153" s="14" t="s">
         <v>413</v>
       </c>
@@ -13420,10 +13414,10 @@
       </c>
       <c r="H153" s="14"/>
       <c r="I153" s="14">
-        <v>-25.625431</v>
+        <v>-25.625430999999999</v>
       </c>
       <c r="J153" s="14">
-        <v>-54.460722</v>
+        <v>-54.460721999999997</v>
       </c>
       <c r="K153" s="14" t="s">
         <v>416</v>
@@ -13438,7 +13432,7 @@
         <v>417</v>
       </c>
       <c r="O153" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P153" s="14" t="s">
         <v>418</v>
@@ -13471,7 +13465,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="2:25" ht="15.75" customHeight="1">
       <c r="B154" s="14" t="s">
         <v>413</v>
       </c>
@@ -13495,7 +13489,7 @@
         <v>-15.4053</v>
       </c>
       <c r="J154" s="14">
-        <v>-55.835294</v>
+        <v>-55.835293999999998</v>
       </c>
       <c r="K154" s="14" t="s">
         <v>431</v>
@@ -13510,7 +13504,7 @@
         <v>417</v>
       </c>
       <c r="O154" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P154" s="14" t="s">
         <v>418</v>
@@ -13543,7 +13537,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="2:25" ht="15.75" customHeight="1">
       <c r="B155" s="14" t="s">
         <v>413</v>
       </c>
@@ -13564,10 +13558,10 @@
       </c>
       <c r="H155" s="14"/>
       <c r="I155" s="14">
-        <v>-25.625431</v>
+        <v>-25.625430999999999</v>
       </c>
       <c r="J155" s="14">
-        <v>-54.460722</v>
+        <v>-54.460721999999997</v>
       </c>
       <c r="K155" s="14" t="s">
         <v>416</v>
@@ -13582,7 +13576,7 @@
         <v>417</v>
       </c>
       <c r="O155" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P155" s="14" t="s">
         <v>418</v>
@@ -13615,7 +13609,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="2:25" ht="15.75" customHeight="1">
       <c r="B156" s="14" t="s">
         <v>413</v>
       </c>
@@ -13639,7 +13633,7 @@
         <v>-15.4053</v>
       </c>
       <c r="J156" s="14">
-        <v>-55.835294</v>
+        <v>-55.835293999999998</v>
       </c>
       <c r="K156" s="14" t="s">
         <v>431</v>
@@ -13654,7 +13648,7 @@
         <v>417</v>
       </c>
       <c r="O156" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P156" s="14" t="s">
         <v>418</v>
@@ -13687,7 +13681,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="2:25" ht="15.75" customHeight="1">
       <c r="B157" s="14" t="s">
         <v>413</v>
       </c>
@@ -13711,7 +13705,7 @@
         <v>-16.665008</v>
       </c>
       <c r="J157" s="14">
-        <v>-56.793894</v>
+        <v>-56.793894000000002</v>
       </c>
       <c r="K157" s="14" t="s">
         <v>425</v>
@@ -13726,7 +13720,7 @@
         <v>417</v>
       </c>
       <c r="O157" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P157" s="14" t="s">
         <v>418</v>
@@ -13759,7 +13753,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="2:25" ht="15.75" customHeight="1">
       <c r="B158" s="14" t="s">
         <v>413</v>
       </c>
@@ -13780,10 +13774,10 @@
       </c>
       <c r="H158" s="14"/>
       <c r="I158" s="14">
-        <v>-23.361814</v>
+        <v>-23.361813999999999</v>
       </c>
       <c r="J158" s="23">
-        <v>-44.844125</v>
+        <v>-44.844124999999998</v>
       </c>
       <c r="K158" s="14" t="s">
         <v>428</v>
@@ -13798,7 +13792,7 @@
         <v>417</v>
       </c>
       <c r="O158" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P158" s="14" t="s">
         <v>418</v>
@@ -13831,7 +13825,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="2:25" ht="15.75" customHeight="1">
       <c r="B159" s="14" t="s">
         <v>413</v>
       </c>
@@ -13855,7 +13849,7 @@
         <v>-15.4053</v>
       </c>
       <c r="J159" s="14">
-        <v>-55.835294</v>
+        <v>-55.835293999999998</v>
       </c>
       <c r="K159" s="14" t="s">
         <v>431</v>
@@ -13870,7 +13864,7 @@
         <v>417</v>
       </c>
       <c r="O159" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P159" s="14" t="s">
         <v>418</v>
@@ -13903,7 +13897,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="2:25" ht="15.75" customHeight="1">
       <c r="B160" s="14" t="s">
         <v>413</v>
       </c>
@@ -13924,10 +13918,10 @@
       </c>
       <c r="H160" s="14"/>
       <c r="I160" s="14">
-        <v>-25.625431</v>
+        <v>-25.625430999999999</v>
       </c>
       <c r="J160" s="14">
-        <v>-54.460722</v>
+        <v>-54.460721999999997</v>
       </c>
       <c r="K160" s="14" t="s">
         <v>416</v>
@@ -13942,7 +13936,7 @@
         <v>417</v>
       </c>
       <c r="O160" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P160" s="14" t="s">
         <v>418</v>
@@ -13975,7 +13969,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1">
       <c r="B161" s="14" t="s">
         <v>413</v>
       </c>
@@ -13999,7 +13993,7 @@
         <v>-16.665008</v>
       </c>
       <c r="J161" s="14">
-        <v>-56.793894</v>
+        <v>-56.793894000000002</v>
       </c>
       <c r="K161" s="14" t="s">
         <v>425</v>
@@ -14014,7 +14008,7 @@
         <v>417</v>
       </c>
       <c r="O161" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P161" s="14" t="s">
         <v>418</v>
@@ -14047,7 +14041,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1">
       <c r="B162" s="14" t="s">
         <v>413</v>
       </c>
@@ -14068,10 +14062,10 @@
       </c>
       <c r="H162" s="22"/>
       <c r="I162" s="22">
-        <v>-22.488386</v>
+        <v>-22.488385999999998</v>
       </c>
       <c r="J162" s="23">
-        <v>-43.001364</v>
+        <v>-43.001364000000002</v>
       </c>
       <c r="K162" s="14" t="s">
         <v>427</v>
@@ -14086,7 +14080,7 @@
         <v>417</v>
       </c>
       <c r="O162" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P162" s="14" t="s">
         <v>418</v>
@@ -14119,7 +14113,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1">
       <c r="B163" s="14" t="s">
         <v>413</v>
       </c>
@@ -14143,7 +14137,7 @@
         <v>-22.752164</v>
       </c>
       <c r="J163" s="14">
-        <v>-44.617392</v>
+        <v>-44.617392000000002</v>
       </c>
       <c r="K163" s="14" t="s">
         <v>429</v>
@@ -14158,7 +14152,7 @@
         <v>417</v>
       </c>
       <c r="O163" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P163" s="14" t="s">
         <v>418</v>
@@ -14191,7 +14185,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1">
       <c r="B164" s="14" t="s">
         <v>413</v>
       </c>
@@ -14212,10 +14206,10 @@
       </c>
       <c r="H164" s="22"/>
       <c r="I164" s="22">
-        <v>-22.488386</v>
+        <v>-22.488385999999998</v>
       </c>
       <c r="J164" s="23">
-        <v>-43.001364</v>
+        <v>-43.001364000000002</v>
       </c>
       <c r="K164" s="14" t="s">
         <v>427</v>
@@ -14230,7 +14224,7 @@
         <v>417</v>
       </c>
       <c r="O164" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P164" s="14" t="s">
         <v>418</v>
@@ -14263,7 +14257,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1">
       <c r="B165" s="14" t="s">
         <v>413</v>
       </c>
@@ -14284,10 +14278,10 @@
       </c>
       <c r="H165" s="14"/>
       <c r="I165" s="14">
-        <v>-25.625431</v>
+        <v>-25.625430999999999</v>
       </c>
       <c r="J165" s="14">
-        <v>-54.460722</v>
+        <v>-54.460721999999997</v>
       </c>
       <c r="K165" s="14" t="s">
         <v>416</v>
@@ -14302,7 +14296,7 @@
         <v>417</v>
       </c>
       <c r="O165" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P165" s="14" t="s">
         <v>418</v>
@@ -14335,7 +14329,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1">
       <c r="A166" s="14" t="s">
         <v>463</v>
       </c>
@@ -14362,7 +14356,7 @@
         <v>34.847718</v>
       </c>
       <c r="J166" s="14">
-        <v>-82.385616</v>
+        <v>-82.385615999999999</v>
       </c>
       <c r="K166" s="14" t="s">
         <v>467</v>
@@ -14377,7 +14371,7 @@
         <v>468</v>
       </c>
       <c r="O166" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P166" s="14" t="s">
         <v>469</v>
@@ -14410,7 +14404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1">
       <c r="B167" s="14" t="s">
         <v>464</v>
       </c>
@@ -14434,7 +14428,7 @@
         <v>34.009656</v>
       </c>
       <c r="J167" s="14">
-        <v>-81.073038</v>
+        <v>-81.073037999999997</v>
       </c>
       <c r="K167" s="14" t="s">
         <v>475</v>
@@ -14449,7 +14443,7 @@
         <v>468</v>
       </c>
       <c r="O167" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P167" s="14" t="s">
         <v>469</v>
@@ -14482,7 +14476,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1">
       <c r="B168" s="14" t="s">
         <v>464</v>
       </c>
@@ -14506,7 +14500,7 @@
         <v>34.009656</v>
       </c>
       <c r="J168" s="14">
-        <v>-81.073038</v>
+        <v>-81.073037999999997</v>
       </c>
       <c r="K168" s="14" t="s">
         <v>475</v>
@@ -14521,7 +14515,7 @@
         <v>468</v>
       </c>
       <c r="O168" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P168" s="14" t="s">
         <v>469</v>
@@ -14554,7 +14548,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1">
       <c r="B169" s="14" t="s">
         <v>464</v>
       </c>
@@ -14578,7 +14572,7 @@
         <v>34.009656</v>
       </c>
       <c r="J169" s="14">
-        <v>-81.073038</v>
+        <v>-81.073037999999997</v>
       </c>
       <c r="K169" s="14" t="s">
         <v>475</v>
@@ -14593,7 +14587,7 @@
         <v>468</v>
       </c>
       <c r="O169" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P169" s="14" t="s">
         <v>469</v>
@@ -14626,7 +14620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1">
       <c r="B170" s="14" t="s">
         <v>464</v>
       </c>
@@ -14650,7 +14644,7 @@
         <v>34.847718</v>
       </c>
       <c r="J170" s="14">
-        <v>-82.385616</v>
+        <v>-82.385615999999999</v>
       </c>
       <c r="K170" s="14" t="s">
         <v>467</v>
@@ -14665,7 +14659,7 @@
         <v>468</v>
       </c>
       <c r="O170" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P170" s="14" t="s">
         <v>469</v>
@@ -14698,7 +14692,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1">
       <c r="B171" s="14" t="s">
         <v>464</v>
       </c>
@@ -14722,7 +14716,7 @@
         <v>34.009656</v>
       </c>
       <c r="J171" s="14">
-        <v>-81.073038</v>
+        <v>-81.073037999999997</v>
       </c>
       <c r="K171" s="14" t="s">
         <v>475</v>
@@ -14737,7 +14731,7 @@
         <v>468</v>
       </c>
       <c r="O171" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P171" s="14" t="s">
         <v>469</v>
@@ -14770,7 +14764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1">
       <c r="B172" s="14" t="s">
         <v>464</v>
       </c>
@@ -14794,7 +14788,7 @@
         <v>34.009656</v>
       </c>
       <c r="J172" s="14">
-        <v>-81.073038</v>
+        <v>-81.073037999999997</v>
       </c>
       <c r="K172" s="14" t="s">
         <v>475</v>
@@ -14809,7 +14803,7 @@
         <v>468</v>
       </c>
       <c r="O172" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P172" s="14" t="s">
         <v>469</v>
@@ -14842,7 +14836,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1">
       <c r="B173" s="14" t="s">
         <v>464</v>
       </c>
@@ -14866,7 +14860,7 @@
         <v>34.847718</v>
       </c>
       <c r="J173" s="14">
-        <v>-82.385616</v>
+        <v>-82.385615999999999</v>
       </c>
       <c r="K173" s="14" t="s">
         <v>467</v>
@@ -14881,7 +14875,7 @@
         <v>468</v>
       </c>
       <c r="O173" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P173" s="14" t="s">
         <v>469</v>
@@ -14914,7 +14908,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1">
       <c r="B174" s="14" t="s">
         <v>464</v>
       </c>
@@ -14938,7 +14932,7 @@
         <v>34.009656</v>
       </c>
       <c r="J174" s="14">
-        <v>-81.073038</v>
+        <v>-81.073037999999997</v>
       </c>
       <c r="K174" s="14" t="s">
         <v>475</v>
@@ -14953,7 +14947,7 @@
         <v>468</v>
       </c>
       <c r="O174" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P174" s="14" t="s">
         <v>469</v>
@@ -14986,7 +14980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1">
       <c r="B175" s="14" t="s">
         <v>464</v>
       </c>
@@ -15010,7 +15004,7 @@
         <v>34.009656</v>
       </c>
       <c r="J175" s="14">
-        <v>-81.073038</v>
+        <v>-81.073037999999997</v>
       </c>
       <c r="K175" s="14" t="s">
         <v>475</v>
@@ -15025,7 +15019,7 @@
         <v>468</v>
       </c>
       <c r="O175" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P175" s="14" t="s">
         <v>469</v>
@@ -15058,7 +15052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1">
       <c r="B176" s="14" t="s">
         <v>464</v>
       </c>
@@ -15082,7 +15076,7 @@
         <v>34.009656</v>
       </c>
       <c r="J176" s="14">
-        <v>-81.073038</v>
+        <v>-81.073037999999997</v>
       </c>
       <c r="K176" s="14" t="s">
         <v>475</v>
@@ -15097,7 +15091,7 @@
         <v>468</v>
       </c>
       <c r="O176" s="14">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="P176" s="14" t="s">
         <v>469</v>
@@ -15130,7 +15124,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1">
       <c r="A177" s="14" t="s">
         <v>489</v>
       </c>
@@ -15154,7 +15148,7 @@
       </c>
       <c r="H177" s="22"/>
       <c r="I177" s="22">
-        <v>35.077787</v>
+        <v>35.077787000000001</v>
       </c>
       <c r="J177" s="14">
         <v>-106.66265</v>
@@ -15172,7 +15166,7 @@
         <v>493</v>
       </c>
       <c r="O177" s="14">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="P177" s="14" t="s">
         <v>494</v>
@@ -15205,7 +15199,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1">
       <c r="B178" s="14" t="s">
         <v>501</v>
       </c>
@@ -15226,7 +15220,7 @@
       </c>
       <c r="H178" s="22"/>
       <c r="I178" s="22">
-        <v>35.077787</v>
+        <v>35.077787000000001</v>
       </c>
       <c r="J178" s="14">
         <v>-106.66265</v>
@@ -15244,7 +15238,7 @@
         <v>493</v>
       </c>
       <c r="O178" s="14">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="P178" s="14" t="s">
         <v>494</v>
@@ -15277,7 +15271,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1">
       <c r="A179" s="14" t="s">
         <v>503</v>
       </c>
@@ -15301,10 +15295,10 @@
       </c>
       <c r="H179" s="22"/>
       <c r="I179" s="22">
-        <v>32.597058</v>
+        <v>32.597057999999997</v>
       </c>
       <c r="J179" s="14">
-        <v>-85.514339</v>
+        <v>-85.514339000000007</v>
       </c>
       <c r="K179" s="14" t="s">
         <v>506</v>
@@ -15319,7 +15313,7 @@
         <v>507</v>
       </c>
       <c r="O179" s="14">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="P179" s="24" t="s">
         <v>383</v>
@@ -15352,7 +15346,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1">
       <c r="B180" s="14" t="s">
         <v>514</v>
       </c>
@@ -15373,10 +15367,10 @@
       </c>
       <c r="H180" s="22"/>
       <c r="I180" s="22">
-        <v>32.597058</v>
+        <v>32.597057999999997</v>
       </c>
       <c r="J180" s="14">
-        <v>-85.514339</v>
+        <v>-85.514339000000007</v>
       </c>
       <c r="K180" s="14" t="s">
         <v>506</v>
@@ -15391,7 +15385,7 @@
         <v>507</v>
       </c>
       <c r="O180" s="14">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="P180" s="24" t="s">
         <v>383</v>
@@ -15424,7 +15418,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1">
       <c r="B181" s="14" t="s">
         <v>516</v>
       </c>
@@ -15445,10 +15439,10 @@
       </c>
       <c r="H181" s="22"/>
       <c r="I181" s="22">
-        <v>32.597058</v>
+        <v>32.597057999999997</v>
       </c>
       <c r="J181" s="14">
-        <v>-85.514339</v>
+        <v>-85.514339000000007</v>
       </c>
       <c r="K181" s="14" t="s">
         <v>506</v>
@@ -15463,7 +15457,7 @@
         <v>507</v>
       </c>
       <c r="O181" s="14">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="P181" s="24" t="s">
         <v>383</v>
@@ -15496,7 +15490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1">
       <c r="B182" s="14" t="s">
         <v>519</v>
       </c>
@@ -15517,10 +15511,10 @@
       </c>
       <c r="H182" s="22"/>
       <c r="I182" s="22">
-        <v>32.597058</v>
+        <v>32.597057999999997</v>
       </c>
       <c r="J182" s="14">
-        <v>-85.514339</v>
+        <v>-85.514339000000007</v>
       </c>
       <c r="K182" s="14" t="s">
         <v>506</v>
@@ -15535,7 +15529,7 @@
         <v>507</v>
       </c>
       <c r="O182" s="14">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="P182" s="24" t="s">
         <v>383</v>
@@ -15568,7 +15562,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1">
       <c r="B183" s="14" t="s">
         <v>521</v>
       </c>
@@ -15589,10 +15583,10 @@
       </c>
       <c r="H183" s="22"/>
       <c r="I183" s="22">
-        <v>32.597058</v>
+        <v>32.597057999999997</v>
       </c>
       <c r="J183" s="14">
-        <v>-85.514339</v>
+        <v>-85.514339000000007</v>
       </c>
       <c r="K183" s="14" t="s">
         <v>506</v>
@@ -15607,7 +15601,7 @@
         <v>507</v>
       </c>
       <c r="O183" s="14">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="P183" s="24" t="s">
         <v>383</v>
@@ -15640,7 +15634,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1">
       <c r="B184" s="14" t="s">
         <v>524</v>
       </c>
@@ -15661,10 +15655,10 @@
       </c>
       <c r="H184" s="22"/>
       <c r="I184" s="22">
-        <v>32.597058</v>
+        <v>32.597057999999997</v>
       </c>
       <c r="J184" s="14">
-        <v>-85.514339</v>
+        <v>-85.514339000000007</v>
       </c>
       <c r="K184" s="14" t="s">
         <v>506</v>
@@ -15679,7 +15673,7 @@
         <v>507</v>
       </c>
       <c r="O184" s="14">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="P184" s="24" t="s">
         <v>383</v>
@@ -15712,7 +15706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1">
       <c r="B185" s="14" t="s">
         <v>526</v>
       </c>
@@ -15733,10 +15727,10 @@
       </c>
       <c r="H185" s="14"/>
       <c r="I185" s="14">
-        <v>27.67533</v>
+        <v>27.675329999999999</v>
       </c>
       <c r="J185" s="14">
-        <v>-80.432628</v>
+        <v>-80.432627999999994</v>
       </c>
       <c r="K185" s="14" t="s">
         <v>528</v>
@@ -15751,7 +15745,7 @@
         <v>529</v>
       </c>
       <c r="O185" s="14">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P185" s="14" t="s">
         <v>530</v>
@@ -15784,7 +15778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1">
       <c r="B186" s="14" t="s">
         <v>526</v>
       </c>
@@ -15805,10 +15799,10 @@
       </c>
       <c r="H186" s="14"/>
       <c r="I186" s="14">
-        <v>27.164273</v>
+        <v>27.164273000000001</v>
       </c>
       <c r="J186" s="14">
-        <v>-80.239789</v>
+        <v>-80.239789000000002</v>
       </c>
       <c r="K186" s="14" t="s">
         <v>536</v>
@@ -15823,7 +15817,7 @@
         <v>529</v>
       </c>
       <c r="O186" s="14">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P186" s="14" t="s">
         <v>530</v>
@@ -15856,7 +15850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1">
       <c r="B187" s="14" t="s">
         <v>526</v>
       </c>
@@ -15877,10 +15871,10 @@
       </c>
       <c r="H187" s="14"/>
       <c r="I187" s="14">
-        <v>27.67533</v>
+        <v>27.675329999999999</v>
       </c>
       <c r="J187" s="14">
-        <v>-80.432628</v>
+        <v>-80.432627999999994</v>
       </c>
       <c r="K187" s="14" t="s">
         <v>528</v>
@@ -15895,7 +15889,7 @@
         <v>529</v>
       </c>
       <c r="O187" s="14">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P187" s="14" t="s">
         <v>530</v>
@@ -15928,7 +15922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1">
       <c r="B188" s="14" t="s">
         <v>526</v>
       </c>
@@ -15949,10 +15943,10 @@
       </c>
       <c r="H188" s="14"/>
       <c r="I188" s="14">
-        <v>27.164273</v>
+        <v>27.164273000000001</v>
       </c>
       <c r="J188" s="14">
-        <v>-80.239789</v>
+        <v>-80.239789000000002</v>
       </c>
       <c r="K188" s="14" t="s">
         <v>536</v>
@@ -15967,7 +15961,7 @@
         <v>529</v>
       </c>
       <c r="O188" s="14">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P188" s="14" t="s">
         <v>530</v>
@@ -16000,7 +15994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1">
       <c r="B189" s="14" t="s">
         <v>526</v>
       </c>
@@ -16021,10 +16015,10 @@
       </c>
       <c r="H189" s="14"/>
       <c r="I189" s="14">
-        <v>27.67533</v>
+        <v>27.675329999999999</v>
       </c>
       <c r="J189" s="14">
-        <v>-80.432628</v>
+        <v>-80.432627999999994</v>
       </c>
       <c r="K189" s="14" t="s">
         <v>528</v>
@@ -16039,7 +16033,7 @@
         <v>529</v>
       </c>
       <c r="O189" s="14">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P189" s="14" t="s">
         <v>530</v>
@@ -16072,7 +16066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1">
       <c r="B190" s="14" t="s">
         <v>526</v>
       </c>
@@ -16093,10 +16087,10 @@
       </c>
       <c r="H190" s="14"/>
       <c r="I190" s="14">
-        <v>27.164273</v>
+        <v>27.164273000000001</v>
       </c>
       <c r="J190" s="14">
-        <v>-80.239789</v>
+        <v>-80.239789000000002</v>
       </c>
       <c r="K190" s="14" t="s">
         <v>536</v>
@@ -16111,7 +16105,7 @@
         <v>529</v>
       </c>
       <c r="O190" s="14">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P190" s="14" t="s">
         <v>530</v>
@@ -16144,7 +16138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1">
       <c r="B191" s="14" t="s">
         <v>543</v>
       </c>
@@ -16165,10 +16159,10 @@
       </c>
       <c r="H191" s="14"/>
       <c r="I191" s="14">
-        <v>-23.991306</v>
+        <v>-23.991306000000002</v>
       </c>
       <c r="J191" s="14">
-        <v>-47.092694</v>
+        <v>-47.092694000000002</v>
       </c>
       <c r="K191" s="14" t="s">
         <v>545</v>
@@ -16183,7 +16177,7 @@
         <v>547</v>
       </c>
       <c r="O191" s="14">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="P191" s="14" t="s">
         <v>548</v>
@@ -16216,7 +16210,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1">
       <c r="B192" s="14" t="s">
         <v>556</v>
       </c>
@@ -16237,7 +16231,7 @@
       </c>
       <c r="H192" s="14"/>
       <c r="I192" s="22">
-        <v>-28.483333</v>
+        <v>-28.483332999999998</v>
       </c>
       <c r="J192" s="14">
         <v>-55.35</v>
@@ -16255,7 +16249,7 @@
         <v>560</v>
       </c>
       <c r="O192" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P192" s="14" t="s">
         <v>561</v>
@@ -16288,7 +16282,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="2:25" ht="15.75" customHeight="1">
       <c r="B193" s="14" t="s">
         <v>556</v>
       </c>
@@ -16312,7 +16306,7 @@
         <v>-28.27749</v>
       </c>
       <c r="J193" s="14">
-        <v>-55.750652</v>
+        <v>-55.750652000000002</v>
       </c>
       <c r="K193" s="14" t="s">
         <v>568</v>
@@ -16327,7 +16321,7 @@
         <v>560</v>
       </c>
       <c r="O193" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P193" s="14" t="s">
         <v>561</v>
@@ -16360,7 +16354,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="2:25" ht="15.75" customHeight="1">
       <c r="B194" s="14" t="s">
         <v>556</v>
       </c>
@@ -16381,10 +16375,10 @@
       </c>
       <c r="H194" s="14"/>
       <c r="I194" s="14">
-        <v>-28.278664</v>
+        <v>-28.278663999999999</v>
       </c>
       <c r="J194" s="14">
-        <v>-55.535822</v>
+        <v>-55.535822000000003</v>
       </c>
       <c r="K194" s="14" t="s">
         <v>569</v>
@@ -16399,7 +16393,7 @@
         <v>560</v>
       </c>
       <c r="O194" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P194" s="14" t="s">
         <v>561</v>
@@ -16432,7 +16426,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="2:25" ht="15.75" customHeight="1">
       <c r="B195" s="14" t="s">
         <v>556</v>
       </c>
@@ -16453,7 +16447,7 @@
       </c>
       <c r="H195" s="14"/>
       <c r="I195" s="22">
-        <v>-28.483333</v>
+        <v>-28.483332999999998</v>
       </c>
       <c r="J195" s="14">
         <v>-55.35</v>
@@ -16471,7 +16465,7 @@
         <v>560</v>
       </c>
       <c r="O195" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P195" s="14" t="s">
         <v>561</v>
@@ -16504,7 +16498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="2:25" ht="15.75" customHeight="1">
       <c r="B196" s="14" t="s">
         <v>556</v>
       </c>
@@ -16528,7 +16522,7 @@
         <v>-28.27749</v>
       </c>
       <c r="J196" s="14">
-        <v>-55.750652</v>
+        <v>-55.750652000000002</v>
       </c>
       <c r="K196" s="14" t="s">
         <v>568</v>
@@ -16543,7 +16537,7 @@
         <v>560</v>
       </c>
       <c r="O196" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P196" s="14" t="s">
         <v>561</v>
@@ -16576,7 +16570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="2:25" ht="15.75" customHeight="1">
       <c r="B197" s="14" t="s">
         <v>556</v>
       </c>
@@ -16597,7 +16591,7 @@
       </c>
       <c r="H197" s="14"/>
       <c r="I197" s="22">
-        <v>-28.483333</v>
+        <v>-28.483332999999998</v>
       </c>
       <c r="J197" s="14">
         <v>-55.35</v>
@@ -16615,7 +16609,7 @@
         <v>560</v>
       </c>
       <c r="O197" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P197" s="14" t="s">
         <v>561</v>
@@ -16648,7 +16642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="2:25" ht="15.75" customHeight="1">
       <c r="B198" s="14" t="s">
         <v>556</v>
       </c>
@@ -16672,7 +16666,7 @@
         <v>-28.27749</v>
       </c>
       <c r="J198" s="14">
-        <v>-55.750652</v>
+        <v>-55.750652000000002</v>
       </c>
       <c r="K198" s="14" t="s">
         <v>568</v>
@@ -16687,7 +16681,7 @@
         <v>560</v>
       </c>
       <c r="O198" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P198" s="14" t="s">
         <v>561</v>
@@ -16720,7 +16714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="2:25" ht="15.75" customHeight="1">
       <c r="B199" s="14" t="s">
         <v>556</v>
       </c>
@@ -16741,10 +16735,10 @@
       </c>
       <c r="H199" s="14"/>
       <c r="I199" s="14">
-        <v>-28.278664</v>
+        <v>-28.278663999999999</v>
       </c>
       <c r="J199" s="14">
-        <v>-55.535822</v>
+        <v>-55.535822000000003</v>
       </c>
       <c r="K199" s="14" t="s">
         <v>569</v>
@@ -16759,7 +16753,7 @@
         <v>560</v>
       </c>
       <c r="O199" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P199" s="14" t="s">
         <v>561</v>
@@ -16792,7 +16786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="2:25" ht="15.75" customHeight="1">
       <c r="B200" s="14" t="s">
         <v>556</v>
       </c>
@@ -16813,7 +16807,7 @@
       </c>
       <c r="H200" s="14"/>
       <c r="I200" s="22">
-        <v>-28.483333</v>
+        <v>-28.483332999999998</v>
       </c>
       <c r="J200" s="14">
         <v>-55.35</v>
@@ -16831,7 +16825,7 @@
         <v>560</v>
       </c>
       <c r="O200" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P200" s="14" t="s">
         <v>561</v>
@@ -16864,7 +16858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="2:25" ht="15.75" customHeight="1">
       <c r="B201" s="14" t="s">
         <v>556</v>
       </c>
@@ -16888,7 +16882,7 @@
         <v>-28.27749</v>
       </c>
       <c r="J201" s="14">
-        <v>-55.750652</v>
+        <v>-55.750652000000002</v>
       </c>
       <c r="K201" s="14" t="s">
         <v>568</v>
@@ -16903,7 +16897,7 @@
         <v>560</v>
       </c>
       <c r="O201" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P201" s="14" t="s">
         <v>561</v>
@@ -16936,7 +16930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="2:25" ht="15.75" customHeight="1">
       <c r="B202" s="14" t="s">
         <v>556</v>
       </c>
@@ -16957,10 +16951,10 @@
       </c>
       <c r="H202" s="14"/>
       <c r="I202" s="14">
-        <v>-28.278664</v>
+        <v>-28.278663999999999</v>
       </c>
       <c r="J202" s="14">
-        <v>-55.535822</v>
+        <v>-55.535822000000003</v>
       </c>
       <c r="K202" s="14" t="s">
         <v>569</v>
@@ -16975,7 +16969,7 @@
         <v>560</v>
       </c>
       <c r="O202" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P202" s="14" t="s">
         <v>561</v>
@@ -17008,7 +17002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="2:25" ht="15.75" customHeight="1">
       <c r="B203" s="14" t="s">
         <v>556</v>
       </c>
@@ -17029,7 +17023,7 @@
       </c>
       <c r="H203" s="14"/>
       <c r="I203" s="22">
-        <v>-28.483333</v>
+        <v>-28.483332999999998</v>
       </c>
       <c r="J203" s="14">
         <v>-55.35</v>
@@ -17047,7 +17041,7 @@
         <v>560</v>
       </c>
       <c r="O203" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P203" s="14" t="s">
         <v>561</v>
@@ -17080,7 +17074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="2:25" ht="15.75" customHeight="1">
       <c r="B204" s="14" t="s">
         <v>556</v>
       </c>
@@ -17104,7 +17098,7 @@
         <v>-28.27749</v>
       </c>
       <c r="J204" s="14">
-        <v>-55.750652</v>
+        <v>-55.750652000000002</v>
       </c>
       <c r="K204" s="14" t="s">
         <v>568</v>
@@ -17119,7 +17113,7 @@
         <v>560</v>
       </c>
       <c r="O204" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P204" s="14" t="s">
         <v>561</v>
@@ -17152,7 +17146,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="2:25" ht="15.75" customHeight="1">
       <c r="B205" s="14" t="s">
         <v>556</v>
       </c>
@@ -17173,10 +17167,10 @@
       </c>
       <c r="H205" s="14"/>
       <c r="I205" s="14">
-        <v>-28.278664</v>
+        <v>-28.278663999999999</v>
       </c>
       <c r="J205" s="14">
-        <v>-55.535822</v>
+        <v>-55.535822000000003</v>
       </c>
       <c r="K205" s="14" t="s">
         <v>569</v>
@@ -17191,7 +17185,7 @@
         <v>560</v>
       </c>
       <c r="O205" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P205" s="14" t="s">
         <v>561</v>
@@ -17224,7 +17218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="2:25" ht="15.75" customHeight="1">
       <c r="B206" s="14" t="s">
         <v>556</v>
       </c>
@@ -17245,7 +17239,7 @@
       </c>
       <c r="H206" s="14"/>
       <c r="I206" s="22">
-        <v>-28.483333</v>
+        <v>-28.483332999999998</v>
       </c>
       <c r="J206" s="14">
         <v>-55.35</v>
@@ -17263,7 +17257,7 @@
         <v>560</v>
       </c>
       <c r="O206" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P206" s="14" t="s">
         <v>561</v>
@@ -17296,7 +17290,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="2:25" ht="15.75" customHeight="1">
       <c r="B207" s="14" t="s">
         <v>556</v>
       </c>
@@ -17320,7 +17314,7 @@
         <v>-28.27749</v>
       </c>
       <c r="J207" s="14">
-        <v>-55.750652</v>
+        <v>-55.750652000000002</v>
       </c>
       <c r="K207" s="14" t="s">
         <v>568</v>
@@ -17335,7 +17329,7 @@
         <v>560</v>
       </c>
       <c r="O207" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P207" s="14" t="s">
         <v>561</v>
@@ -17368,7 +17362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="2:25" ht="15.75" customHeight="1">
       <c r="B208" s="14" t="s">
         <v>556</v>
       </c>
@@ -17392,7 +17386,7 @@
         <v>-28.27749</v>
       </c>
       <c r="J208" s="14">
-        <v>-55.750652</v>
+        <v>-55.750652000000002</v>
       </c>
       <c r="K208" s="14" t="s">
         <v>568</v>
@@ -17407,7 +17401,7 @@
         <v>560</v>
       </c>
       <c r="O208" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P208" s="14" t="s">
         <v>561</v>
@@ -17440,7 +17434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="2:25" ht="15.75" customHeight="1">
       <c r="B209" s="14" t="s">
         <v>556</v>
       </c>
@@ -17464,7 +17458,7 @@
         <v>-28.27749</v>
       </c>
       <c r="J209" s="14">
-        <v>-55.750652</v>
+        <v>-55.750652000000002</v>
       </c>
       <c r="K209" s="14" t="s">
         <v>568</v>
@@ -17479,7 +17473,7 @@
         <v>560</v>
       </c>
       <c r="O209" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P209" s="14" t="s">
         <v>561</v>
@@ -17512,7 +17506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="2:25" ht="15.75" customHeight="1">
       <c r="B210" s="14" t="s">
         <v>556</v>
       </c>
@@ -17533,7 +17527,7 @@
       </c>
       <c r="H210" s="14"/>
       <c r="I210" s="22">
-        <v>-28.483333</v>
+        <v>-28.483332999999998</v>
       </c>
       <c r="J210" s="14">
         <v>-55.35</v>
@@ -17551,7 +17545,7 @@
         <v>560</v>
       </c>
       <c r="O210" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P210" s="14" t="s">
         <v>561</v>
@@ -17584,7 +17578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="2:25" ht="15.75" customHeight="1">
       <c r="B211" s="14" t="s">
         <v>556</v>
       </c>
@@ -17608,7 +17602,7 @@
         <v>-28.27749</v>
       </c>
       <c r="J211" s="14">
-        <v>-55.750652</v>
+        <v>-55.750652000000002</v>
       </c>
       <c r="K211" s="14" t="s">
         <v>568</v>
@@ -17623,7 +17617,7 @@
         <v>560</v>
       </c>
       <c r="O211" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P211" s="14" t="s">
         <v>561</v>
@@ -17656,7 +17650,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="2:25" ht="15.75" customHeight="1">
       <c r="B212" s="14" t="s">
         <v>556</v>
       </c>
@@ -17677,10 +17671,10 @@
       </c>
       <c r="H212" s="14"/>
       <c r="I212" s="14">
-        <v>-28.278664</v>
+        <v>-28.278663999999999</v>
       </c>
       <c r="J212" s="14">
-        <v>-55.535822</v>
+        <v>-55.535822000000003</v>
       </c>
       <c r="K212" s="14" t="s">
         <v>569</v>
@@ -17695,7 +17689,7 @@
         <v>560</v>
       </c>
       <c r="O212" s="14">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P212" s="14" t="s">
         <v>561</v>
@@ -17728,822 +17722,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
-    <row r="1009" ht="15.75" customHeight="1"/>
-    <row r="1010" ht="15.75" customHeight="1"/>
-    <row r="1011" ht="15.75" customHeight="1"/>
-    <row r="1012" ht="15.75" customHeight="1"/>
-    <row r="1013" ht="15.75" customHeight="1"/>
-    <row r="1014" ht="15.75" customHeight="1"/>
-    <row r="1015" ht="15.75" customHeight="1"/>
-    <row r="1016" ht="15.75" customHeight="1"/>
-    <row r="1017" ht="15.75" customHeight="1"/>
-    <row r="1018" ht="15.75" customHeight="1"/>
-    <row r="1019" ht="15.75" customHeight="1"/>
-    <row r="1020" ht="15.75" customHeight="1"/>
-    <row r="1021" ht="15.75" customHeight="1"/>
-    <row r="1022" ht="15.75" customHeight="1"/>
-    <row r="1023" ht="15.75" customHeight="1"/>
-    <row r="1024" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>